--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2604646.627935315</v>
+        <v>2604035.164112267</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>57.55671981638956</v>
       </c>
       <c r="D11" t="n">
-        <v>99.93821650882553</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>185.958824872938</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>151.4438020691863</v>
+        <v>151.4438020691862</v>
       </c>
       <c r="I11" t="n">
-        <v>45.80699109396334</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.10550038386716</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>26.81065347725297</v>
+        <v>26.81065347725286</v>
       </c>
       <c r="U11" t="n">
-        <v>54.438418090346</v>
+        <v>54.43841809034589</v>
       </c>
       <c r="V11" t="n">
-        <v>125.1666010705181</v>
+        <v>125.166601070518</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>142.1832812871328</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>164.0695317560721</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>125.1863964254808</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.773671034394422</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="T12" t="n">
-        <v>19.28629294055943</v>
+        <v>19.28629294055931</v>
       </c>
       <c r="U12" t="n">
-        <v>41.51535298448487</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="V12" t="n">
-        <v>44.93573837676831</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="W12" t="n">
-        <v>70.99140103837766</v>
+        <v>70.99140103837755</v>
       </c>
       <c r="X12" t="n">
-        <v>21.59973190083667</v>
+        <v>38.07006433936076</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.67110359539168</v>
+        <v>27.67110359539157</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.983801969852658</v>
+        <v>7.983801969852546</v>
       </c>
       <c r="S13" t="n">
-        <v>39.82835632156568</v>
+        <v>39.82835632156556</v>
       </c>
       <c r="T13" t="n">
-        <v>28.07375014861602</v>
+        <v>28.07375014861591</v>
       </c>
       <c r="U13" t="n">
-        <v>92.94369835636053</v>
+        <v>92.94369835636041</v>
       </c>
       <c r="V13" t="n">
-        <v>49.39583264581597</v>
+        <v>49.39583264581586</v>
       </c>
       <c r="W13" t="n">
-        <v>94.59752455070139</v>
+        <v>94.59752455070128</v>
       </c>
       <c r="X13" t="n">
-        <v>26.2062728696086</v>
+        <v>26.20627286960848</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.42809027553449</v>
+        <v>21.42809027553437</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.8376901533317</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.4438020691862</v>
+        <v>142.9134511765416</v>
       </c>
       <c r="I14" t="n">
-        <v>45.80699109396323</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.10550038386705</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>142.1832812871328</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>164.0695317560721</v>
       </c>
       <c r="Y14" t="n">
         <v>185.958824872938</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>37.27893656587491</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7516880733257</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.773671034394425</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>45.16098322611371</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.28629294055931</v>
+        <v>185.958824872938</v>
       </c>
       <c r="U15" t="n">
         <v>41.51535298448476</v>
@@ -1746,7 +1746,7 @@
         <v>44.9357383767682</v>
       </c>
       <c r="W15" t="n">
-        <v>70.99140103837755</v>
+        <v>185.958824872938</v>
       </c>
       <c r="X15" t="n">
         <v>21.59973190083656</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.73024242704577</v>
+        <v>75.73024242704582</v>
       </c>
       <c r="C17" t="n">
-        <v>51.84849943039126</v>
+        <v>51.84849943039131</v>
       </c>
       <c r="D17" t="n">
-        <v>39.41516169143972</v>
+        <v>39.41516169143953</v>
       </c>
       <c r="E17" t="n">
-        <v>73.12191411084859</v>
+        <v>73.12191411084865</v>
       </c>
       <c r="F17" t="n">
-        <v>104.8422516892259</v>
+        <v>104.842251689226</v>
       </c>
       <c r="G17" t="n">
         <v>120.4944142159884</v>
       </c>
       <c r="H17" t="n">
-        <v>48.79998665703266</v>
+        <v>48.79998665703271</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>22.52278565836446</v>
+        <v>22.52278565836451</v>
       </c>
       <c r="W17" t="n">
-        <v>39.53946587497933</v>
+        <v>39.53946587497938</v>
       </c>
       <c r="X17" t="n">
-        <v>61.42571634391857</v>
+        <v>61.42571634391862</v>
       </c>
       <c r="Y17" t="n">
-        <v>83.92856946766233</v>
+        <v>83.92856946766238</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.4283934227661</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7516880733257</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.8039372363663</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.6072974044544</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>53.1444151188733</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.773671034394422</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>135.1596052767173</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>37.84125814663861</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.958824872938</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>185.958824872938</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.73024242704582</v>
+        <v>75.73024242704577</v>
       </c>
       <c r="C20" t="n">
-        <v>51.84849943039131</v>
+        <v>51.84849943039126</v>
       </c>
       <c r="D20" t="n">
-        <v>39.41516169143978</v>
+        <v>39.41516169143972</v>
       </c>
       <c r="E20" t="n">
-        <v>73.12191411084865</v>
+        <v>73.12191411084859</v>
       </c>
       <c r="F20" t="n">
-        <v>104.842251689226</v>
+        <v>104.8422516892259</v>
       </c>
       <c r="G20" t="n">
-        <v>120.4944142159885</v>
+        <v>120.4944142159884</v>
       </c>
       <c r="H20" t="n">
-        <v>48.79998665703272</v>
+        <v>48.79998665703266</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>22.52278565836451</v>
+        <v>22.52278565836446</v>
       </c>
       <c r="W20" t="n">
-        <v>39.53946587497938</v>
+        <v>39.53946587497933</v>
       </c>
       <c r="X20" t="n">
-        <v>61.42571634391862</v>
+        <v>61.42571634391857</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.92856946766238</v>
+        <v>83.92856946766233</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>185.958824872938</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>53.1444151188733</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.773671034394422</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S21" t="n">
-        <v>102.874446794816</v>
+        <v>55.41943746772581</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>185.958824872938</v>
       </c>
       <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>185.958824872938</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.73024242704582</v>
+        <v>75.73024242704577</v>
       </c>
       <c r="C23" t="n">
-        <v>51.84849943039131</v>
+        <v>51.84849943039126</v>
       </c>
       <c r="D23" t="n">
-        <v>39.41516169143978</v>
+        <v>39.41516169143972</v>
       </c>
       <c r="E23" t="n">
-        <v>73.12191411084865</v>
+        <v>73.12191411084859</v>
       </c>
       <c r="F23" t="n">
-        <v>104.842251689226</v>
+        <v>104.8422516892259</v>
       </c>
       <c r="G23" t="n">
-        <v>120.4944142159885</v>
+        <v>120.4944142159884</v>
       </c>
       <c r="H23" t="n">
-        <v>48.79998665703272</v>
+        <v>48.79998665703266</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>22.52278565836451</v>
+        <v>22.52278565836446</v>
       </c>
       <c r="W23" t="n">
-        <v>39.53946587497938</v>
+        <v>39.53946587497933</v>
       </c>
       <c r="X23" t="n">
-        <v>61.42571634391862</v>
+        <v>61.42571634391857</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.92856946766238</v>
+        <v>83.92856946766233</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.773671034394422</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="U24" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="V24" t="n">
-        <v>183.154247666699</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>28.63292767136633</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>159.9021929145028</v>
+        <v>159.9021929145029</v>
       </c>
       <c r="C26" t="n">
-        <v>136.0204499178483</v>
+        <v>136.0204499178484</v>
       </c>
       <c r="D26" t="n">
         <v>123.5871121788968</v>
@@ -2570,10 +2570,10 @@
         <v>204.6663647034455</v>
       </c>
       <c r="H26" t="n">
-        <v>132.9719371444897</v>
+        <v>132.9719371444898</v>
       </c>
       <c r="I26" t="n">
-        <v>27.33512616926679</v>
+        <v>27.33512616926683</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.63363545917061</v>
+        <v>13.63363545917064</v>
       </c>
       <c r="T26" t="n">
-        <v>8.338788552556426</v>
+        <v>8.338788552556457</v>
       </c>
       <c r="U26" t="n">
-        <v>35.96655316564946</v>
+        <v>35.96655316564949</v>
       </c>
       <c r="V26" t="n">
-        <v>106.6947361458215</v>
+        <v>106.6947361458216</v>
       </c>
       <c r="W26" t="n">
         <v>123.7114163624364</v>
       </c>
       <c r="X26" t="n">
-        <v>145.5976668313756</v>
+        <v>145.5976668313757</v>
       </c>
       <c r="Y26" t="n">
         <v>168.1005199551194</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>24.09335891128406</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.7223660589951</v>
       </c>
       <c r="T27" t="n">
-        <v>197.736928081572</v>
+        <v>0.8144280158629104</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2285355231188</v>
+        <v>23.04348805978835</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>52.51953611368111</v>
+        <v>52.51953611368114</v>
       </c>
       <c r="X27" t="n">
-        <v>3.127866976140126</v>
+        <v>3.127866976140155</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199238670695138</v>
+        <v>9.199238670695166</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.35649139686913</v>
+        <v>21.35649139686916</v>
       </c>
       <c r="T28" t="n">
-        <v>9.601885223919474</v>
+        <v>9.601885223919503</v>
       </c>
       <c r="U28" t="n">
-        <v>74.47183343166398</v>
+        <v>74.47183343166401</v>
       </c>
       <c r="V28" t="n">
-        <v>30.92396772111942</v>
+        <v>30.92396772111945</v>
       </c>
       <c r="W28" t="n">
-        <v>76.12565962600485</v>
+        <v>76.12565962600488</v>
       </c>
       <c r="X28" t="n">
-        <v>7.73440794491205</v>
+        <v>7.734407944912078</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.95622535083794</v>
+        <v>2.956225350837968</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>159.902192914503</v>
+        <v>159.9021929145029</v>
       </c>
       <c r="C29" t="n">
-        <v>136.0204499178485</v>
+        <v>136.0204499178484</v>
       </c>
       <c r="D29" t="n">
-        <v>123.5871121788969</v>
+        <v>123.5871121788968</v>
       </c>
       <c r="E29" t="n">
-        <v>157.2938645983058</v>
+        <v>157.2938645983057</v>
       </c>
       <c r="F29" t="n">
-        <v>189.0142021766831</v>
+        <v>189.014202176683</v>
       </c>
       <c r="G29" t="n">
-        <v>204.6663647034456</v>
+        <v>204.6663647034455</v>
       </c>
       <c r="H29" t="n">
-        <v>132.9719371444899</v>
+        <v>132.9719371444898</v>
       </c>
       <c r="I29" t="n">
-        <v>27.33512616926691</v>
+        <v>27.33512616926683</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.63363545917073</v>
+        <v>13.63363545917065</v>
       </c>
       <c r="T29" t="n">
-        <v>8.33878855255654</v>
+        <v>8.338788552556451</v>
       </c>
       <c r="U29" t="n">
-        <v>35.96655316564957</v>
+        <v>35.96655316564949</v>
       </c>
       <c r="V29" t="n">
-        <v>106.6947361458217</v>
+        <v>106.6947361458216</v>
       </c>
       <c r="W29" t="n">
-        <v>123.7114163624365</v>
+        <v>123.7114163624364</v>
       </c>
       <c r="X29" t="n">
-        <v>145.5976668313758</v>
+        <v>145.5976668313757</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.1005199551195</v>
+        <v>168.1005199551194</v>
       </c>
     </row>
     <row r="30">
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R30" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8144280158629955</v>
+        <v>189.9632570471774</v>
       </c>
       <c r="U30" t="n">
-        <v>23.04348805978844</v>
+        <v>23.04348805978835</v>
       </c>
       <c r="V30" t="n">
-        <v>26.46387345207188</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.127866976140155</v>
       </c>
       <c r="Y30" t="n">
-        <v>70.96213345968661</v>
+        <v>9.199238670695166</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.35649139686924</v>
+        <v>21.35649139686916</v>
       </c>
       <c r="T31" t="n">
-        <v>9.601885223919588</v>
+        <v>9.601885223919503</v>
       </c>
       <c r="U31" t="n">
-        <v>74.47183343166409</v>
+        <v>74.47183343166401</v>
       </c>
       <c r="V31" t="n">
-        <v>30.92396772111954</v>
+        <v>30.92396772111945</v>
       </c>
       <c r="W31" t="n">
-        <v>76.12565962600496</v>
+        <v>76.12565962600488</v>
       </c>
       <c r="X31" t="n">
-        <v>7.734407944912164</v>
+        <v>7.734407944912078</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.956225350838054</v>
+        <v>2.956225350837968</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>136.0204499178484</v>
       </c>
       <c r="D32" t="n">
-        <v>123.5871121788969</v>
+        <v>123.5871121788968</v>
       </c>
       <c r="E32" t="n">
-        <v>157.2938645983058</v>
+        <v>157.2938645983057</v>
       </c>
       <c r="F32" t="n">
-        <v>189.0142021766831</v>
+        <v>189.014202176683</v>
       </c>
       <c r="G32" t="n">
-        <v>204.6663647034456</v>
+        <v>204.6663647034455</v>
       </c>
       <c r="H32" t="n">
         <v>132.9719371444898</v>
       </c>
       <c r="I32" t="n">
-        <v>27.33512616926688</v>
+        <v>27.33512616926683</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.6336354591707</v>
+        <v>13.63363545917065</v>
       </c>
       <c r="T32" t="n">
-        <v>8.338788552556512</v>
+        <v>8.338788552556451</v>
       </c>
       <c r="U32" t="n">
-        <v>35.96655316564954</v>
+        <v>35.96655316564949</v>
       </c>
       <c r="V32" t="n">
         <v>106.6947361458216</v>
       </c>
       <c r="W32" t="n">
-        <v>123.7114163624365</v>
+        <v>123.7114163624364</v>
       </c>
       <c r="X32" t="n">
         <v>145.5976668313757</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.1005199551195</v>
+        <v>168.1005199551194</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>53.98922375459728</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8144280158629671</v>
+        <v>0.8144280158629104</v>
       </c>
       <c r="U33" t="n">
-        <v>219.9659881254971</v>
+        <v>23.04348805978835</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3171,10 +3171,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.127866976140211</v>
+        <v>3.127866976140155</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.199238670695223</v>
+        <v>9.199238670695166</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.35649139686921</v>
+        <v>21.35649139686916</v>
       </c>
       <c r="T34" t="n">
-        <v>9.60188522391956</v>
+        <v>9.601885223919503</v>
       </c>
       <c r="U34" t="n">
-        <v>74.47183343166407</v>
+        <v>74.47183343166401</v>
       </c>
       <c r="V34" t="n">
-        <v>30.92396772111951</v>
+        <v>30.92396772111945</v>
       </c>
       <c r="W34" t="n">
-        <v>76.12565962600493</v>
+        <v>76.12565962600488</v>
       </c>
       <c r="X34" t="n">
-        <v>7.734407944912135</v>
+        <v>7.734407944912078</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.956225350838025</v>
+        <v>2.956225350837968</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0481107126616</v>
+        <v>102.0481107126618</v>
       </c>
       <c r="C35" t="n">
-        <v>78.16636771600713</v>
+        <v>78.16636771600724</v>
       </c>
       <c r="D35" t="n">
-        <v>65.73302997705559</v>
+        <v>65.73302997705571</v>
       </c>
       <c r="E35" t="n">
-        <v>99.43978239646447</v>
+        <v>99.43978239646458</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1601199748418</v>
+        <v>131.1601199748419</v>
       </c>
       <c r="G35" t="n">
-        <v>146.8122825016042</v>
+        <v>146.8122825016044</v>
       </c>
       <c r="H35" t="n">
-        <v>75.11785494264853</v>
+        <v>75.11785494264865</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.84065394398033</v>
+        <v>48.84065394398044</v>
       </c>
       <c r="W35" t="n">
-        <v>65.8573341605952</v>
+        <v>65.85733416059531</v>
       </c>
       <c r="X35" t="n">
-        <v>87.74358462953444</v>
+        <v>87.74358462953455</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2464377532782</v>
+        <v>110.2464377532783</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>135.1596052767173</v>
       </c>
       <c r="S36" t="n">
-        <v>172.989031085228</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9994754791934</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>200.4703550400555</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.61775122982277</v>
+        <v>16.61775122982289</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.27157742416364</v>
+        <v>18.27157742416375</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0481107126616</v>
+        <v>102.0481107126618</v>
       </c>
       <c r="C38" t="n">
-        <v>78.16636771600713</v>
+        <v>78.16636771600724</v>
       </c>
       <c r="D38" t="n">
-        <v>65.73302997705559</v>
+        <v>65.73302997705571</v>
       </c>
       <c r="E38" t="n">
-        <v>99.43978239646447</v>
+        <v>99.43978239646458</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1601199748418</v>
+        <v>131.1601199748419</v>
       </c>
       <c r="G38" t="n">
-        <v>146.8122825016042</v>
+        <v>146.8122825016044</v>
       </c>
       <c r="H38" t="n">
-        <v>75.11785494264853</v>
+        <v>75.11785494264865</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.84065394398033</v>
+        <v>48.84065394398044</v>
       </c>
       <c r="W38" t="n">
-        <v>65.8573341605952</v>
+        <v>65.85733416059531</v>
       </c>
       <c r="X38" t="n">
-        <v>87.74358462953444</v>
+        <v>87.74358462953455</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2464377532782</v>
+        <v>110.2464377532783</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7516880733257</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.718826647587181</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.7223660589951</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>70.86120378309315</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2285355231188</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.61775122982277</v>
+        <v>16.61775122982289</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.27157742416364</v>
+        <v>18.27157742416375</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>108.6853237485815</v>
       </c>
       <c r="D41" t="n">
-        <v>96.25198600962997</v>
+        <v>96.25198600963</v>
       </c>
       <c r="E41" t="n">
-        <v>129.9587384290388</v>
+        <v>129.9587384290389</v>
       </c>
       <c r="F41" t="n">
         <v>161.6790760074162</v>
       </c>
       <c r="G41" t="n">
-        <v>95.56446212291266</v>
+        <v>16.83394593202954</v>
       </c>
       <c r="H41" t="n">
-        <v>105.6368109752229</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>8.631426996382658</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>79.35960997655474</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>96.37629019316961</v>
       </c>
       <c r="X41" t="n">
         <v>118.2625406621088</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9994754791934</v>
+        <v>13.14362104645336</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2285355231188</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>179.1199601571217</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.13670726239715</v>
+        <v>47.13670726239718</v>
       </c>
       <c r="V43" t="n">
-        <v>3.588841551852596</v>
+        <v>3.588841551852624</v>
       </c>
       <c r="W43" t="n">
-        <v>48.79053345673802</v>
+        <v>48.79053345673805</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,16 +3980,16 @@
         <v>108.6853237485815</v>
       </c>
       <c r="D44" t="n">
-        <v>96.25198600962997</v>
+        <v>96.25198600963</v>
       </c>
       <c r="E44" t="n">
-        <v>25.50371085908162</v>
+        <v>129.9587384290389</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>177.3312385341786</v>
+        <v>72.87621096422255</v>
       </c>
       <c r="H44" t="n">
         <v>105.6368109752229</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.631426996382629</v>
+        <v>8.631426996382661</v>
       </c>
       <c r="V44" t="n">
-        <v>79.35960997655471</v>
+        <v>79.35960997655474</v>
       </c>
       <c r="W44" t="n">
-        <v>96.37629019316958</v>
+        <v>96.37629019316961</v>
       </c>
       <c r="X44" t="n">
         <v>118.2625406621088</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>107.3035845518292</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.8039372363663</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.7223660589951</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9994754791934</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>131.8042804003408</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.18440994441431</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.13670726239715</v>
+        <v>47.13670726239718</v>
       </c>
       <c r="V46" t="n">
-        <v>3.588841551852596</v>
+        <v>3.588841551852624</v>
       </c>
       <c r="W46" t="n">
-        <v>48.79053345673802</v>
+        <v>48.79053345673805</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>502.9048216917675</v>
+        <v>225.9883442580935</v>
       </c>
       <c r="C11" t="n">
-        <v>502.9048216917675</v>
+        <v>167.8502434334575</v>
       </c>
       <c r="D11" t="n">
-        <v>401.9571282485094</v>
+        <v>167.8502434334575</v>
       </c>
       <c r="E11" t="n">
-        <v>401.9571282485094</v>
+        <v>167.8502434334575</v>
       </c>
       <c r="F11" t="n">
-        <v>401.9571282485094</v>
+        <v>167.8502434334575</v>
       </c>
       <c r="G11" t="n">
-        <v>214.1199314071579</v>
+        <v>167.8502434334575</v>
       </c>
       <c r="H11" t="n">
-        <v>61.1463939635354</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I11" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="J11" t="n">
-        <v>131.5065296358405</v>
+        <v>131.5065296358406</v>
       </c>
       <c r="K11" t="n">
-        <v>131.5065296358405</v>
+        <v>315.6057662600491</v>
       </c>
       <c r="L11" t="n">
-        <v>176.1590188683207</v>
+        <v>360.2582554925294</v>
       </c>
       <c r="M11" t="n">
-        <v>254.7194764375517</v>
+        <v>527.72377855975</v>
       </c>
       <c r="N11" t="n">
-        <v>327.7086883256881</v>
+        <v>711.8230151839585</v>
       </c>
       <c r="O11" t="n">
-        <v>463.3790345750456</v>
+        <v>743.8352994917516</v>
       </c>
       <c r="P11" t="n">
-        <v>640.3092566992166</v>
+        <v>743.8352994917516</v>
       </c>
       <c r="Q11" t="n">
-        <v>743.8352994917518</v>
+        <v>743.8352994917516</v>
       </c>
       <c r="R11" t="n">
-        <v>743.8352994917518</v>
+        <v>743.8352994917516</v>
       </c>
       <c r="S11" t="n">
-        <v>711.4055011242091</v>
+        <v>743.8352994917516</v>
       </c>
       <c r="T11" t="n">
-        <v>684.3240329653677</v>
+        <v>716.7538313329103</v>
       </c>
       <c r="U11" t="n">
-        <v>629.335731864008</v>
+        <v>661.7655302315508</v>
       </c>
       <c r="V11" t="n">
-        <v>502.9048216917675</v>
+        <v>535.3346200593104</v>
       </c>
       <c r="W11" t="n">
-        <v>502.9048216917675</v>
+        <v>391.7151440117015</v>
       </c>
       <c r="X11" t="n">
-        <v>502.9048216917675</v>
+        <v>225.9883442580935</v>
       </c>
       <c r="Y11" t="n">
-        <v>502.9048216917675</v>
+        <v>225.9883442580935</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>141.3276114701187</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="C12" t="n">
-        <v>141.3276114701187</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="D12" t="n">
-        <v>141.3276114701187</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="E12" t="n">
-        <v>141.3276114701187</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="F12" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="G12" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="H12" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I12" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="J12" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="K12" t="n">
-        <v>51.70762461639541</v>
+        <v>51.70762461639539</v>
       </c>
       <c r="L12" t="n">
         <v>167.5178822620771</v>
@@ -5133,37 +5133,37 @@
         <v>531.5168913592913</v>
       </c>
       <c r="O12" t="n">
-        <v>661.5493163343177</v>
+        <v>661.5493163343175</v>
       </c>
       <c r="P12" t="n">
-        <v>743.8352994917518</v>
+        <v>743.8352994917516</v>
       </c>
       <c r="Q12" t="n">
-        <v>735.983106527717</v>
+        <v>735.9831065277168</v>
       </c>
       <c r="R12" t="n">
-        <v>735.983106527717</v>
+        <v>735.9831065277168</v>
       </c>
       <c r="S12" t="n">
-        <v>548.1459096863656</v>
+        <v>548.1459096863654</v>
       </c>
       <c r="T12" t="n">
-        <v>528.6648057060025</v>
+        <v>528.6648057060024</v>
       </c>
       <c r="U12" t="n">
-        <v>486.7301057216744</v>
+        <v>340.827608864651</v>
       </c>
       <c r="V12" t="n">
-        <v>441.340470997666</v>
+        <v>152.9904120232996</v>
       </c>
       <c r="W12" t="n">
-        <v>369.6319851003148</v>
+        <v>81.2819261259485</v>
       </c>
       <c r="X12" t="n">
-        <v>347.8140740893687</v>
+        <v>42.82731568214975</v>
       </c>
       <c r="Y12" t="n">
-        <v>319.8634643970538</v>
+        <v>14.87670598983503</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="C13" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="D13" t="n">
-        <v>64.90193295487903</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="E13" t="n">
-        <v>118.3986038680239</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="F13" t="n">
-        <v>174.6170411850093</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="G13" t="n">
-        <v>174.6170411850093</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="H13" t="n">
-        <v>204.1546662123127</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I13" t="n">
-        <v>211.105263725054</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="J13" t="n">
-        <v>211.105263725054</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="K13" t="n">
-        <v>211.105263725054</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="L13" t="n">
-        <v>211.105263725054</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="M13" t="n">
-        <v>378.975016230295</v>
+        <v>20.683974187795</v>
       </c>
       <c r="N13" t="n">
-        <v>378.975016230295</v>
+        <v>20.683974187795</v>
       </c>
       <c r="O13" t="n">
-        <v>378.975016230295</v>
+        <v>176.5049224041315</v>
       </c>
       <c r="P13" t="n">
-        <v>378.975016230295</v>
+        <v>311.6560898665684</v>
       </c>
       <c r="Q13" t="n">
-        <v>378.975016230295</v>
+        <v>378.9750162302941</v>
       </c>
       <c r="R13" t="n">
-        <v>370.9105697961004</v>
+        <v>370.9105697960996</v>
       </c>
       <c r="S13" t="n">
-        <v>330.6799068450239</v>
+        <v>330.6799068450233</v>
       </c>
       <c r="T13" t="n">
-        <v>302.3225834625835</v>
+        <v>302.3225834625829</v>
       </c>
       <c r="U13" t="n">
-        <v>208.4400598703002</v>
+        <v>208.4400598702997</v>
       </c>
       <c r="V13" t="n">
-        <v>158.545279419981</v>
+        <v>158.5452794199806</v>
       </c>
       <c r="W13" t="n">
-        <v>62.9922243182624</v>
+        <v>62.99222431826216</v>
       </c>
       <c r="X13" t="n">
-        <v>36.52124162168806</v>
+        <v>36.52124162168793</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.1199314071577</v>
+        <v>159.2337273802812</v>
       </c>
       <c r="C14" t="n">
-        <v>214.1199314071577</v>
+        <v>159.2337273802812</v>
       </c>
       <c r="D14" t="n">
-        <v>214.1199314071577</v>
+        <v>159.2337273802812</v>
       </c>
       <c r="E14" t="n">
-        <v>214.1199314071577</v>
+        <v>159.2337273802812</v>
       </c>
       <c r="F14" t="n">
-        <v>214.1199314071577</v>
+        <v>159.2337273802812</v>
       </c>
       <c r="G14" t="n">
-        <v>214.1199314071577</v>
+        <v>159.2337273802812</v>
       </c>
       <c r="H14" t="n">
-        <v>61.14639396353527</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="I14" t="n">
         <v>14.87670598983504</v>
       </c>
       <c r="J14" t="n">
-        <v>131.5065296358406</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="K14" t="n">
-        <v>131.5065296358406</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="L14" t="n">
-        <v>176.1590188683209</v>
+        <v>198.9759426140436</v>
       </c>
       <c r="M14" t="n">
-        <v>358.3775383791159</v>
+        <v>277.5364001832746</v>
       </c>
       <c r="N14" t="n">
-        <v>431.3667502672523</v>
+        <v>382.8058407433721</v>
       </c>
       <c r="O14" t="n">
-        <v>463.3790345750454</v>
+        <v>566.9050773675807</v>
       </c>
       <c r="P14" t="n">
-        <v>640.3092566992165</v>
+        <v>743.8352994917518</v>
       </c>
       <c r="Q14" t="n">
         <v>743.8352994917518</v>
@@ -5303,25 +5303,25 @@
         <v>743.8352994917518</v>
       </c>
       <c r="S14" t="n">
-        <v>743.8352994917518</v>
+        <v>711.4055011242093</v>
       </c>
       <c r="T14" t="n">
-        <v>743.8352994917518</v>
+        <v>711.4055011242093</v>
       </c>
       <c r="U14" t="n">
-        <v>688.8469983903923</v>
+        <v>656.4172000228497</v>
       </c>
       <c r="V14" t="n">
-        <v>688.8469983903923</v>
+        <v>656.4172000228497</v>
       </c>
       <c r="W14" t="n">
-        <v>545.2275223427833</v>
+        <v>512.7977239752407</v>
       </c>
       <c r="X14" t="n">
-        <v>545.2275223427833</v>
+        <v>347.0709242216326</v>
       </c>
       <c r="Y14" t="n">
-        <v>357.3903255014319</v>
+        <v>159.2337273802812</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>325.5586526496877</v>
+        <v>52.53219747051676</v>
       </c>
       <c r="C15" t="n">
-        <v>325.5586526496877</v>
+        <v>52.53219747051676</v>
       </c>
       <c r="D15" t="n">
-        <v>325.5586526496877</v>
+        <v>52.53219747051676</v>
       </c>
       <c r="E15" t="n">
-        <v>325.5586526496877</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="F15" t="n">
-        <v>165.1309363669318</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="G15" t="n">
         <v>14.87670598983504</v>
@@ -5358,7 +5358,7 @@
         <v>14.87670598983504</v>
       </c>
       <c r="K15" t="n">
-        <v>51.70762461639541</v>
+        <v>51.7076246163954</v>
       </c>
       <c r="L15" t="n">
         <v>167.5178822620771</v>
@@ -5376,31 +5376,31 @@
         <v>743.8352994917518</v>
       </c>
       <c r="Q15" t="n">
-        <v>735.983106527717</v>
+        <v>743.8352994917518</v>
       </c>
       <c r="R15" t="n">
-        <v>599.458252712851</v>
+        <v>743.8352994917518</v>
       </c>
       <c r="S15" t="n">
-        <v>553.8410979389988</v>
+        <v>743.8352994917518</v>
       </c>
       <c r="T15" t="n">
-        <v>534.3599939586359</v>
+        <v>555.9981026504004</v>
       </c>
       <c r="U15" t="n">
-        <v>492.4252939743078</v>
+        <v>514.0634026660723</v>
       </c>
       <c r="V15" t="n">
-        <v>447.0356592502995</v>
+        <v>468.673767942064</v>
       </c>
       <c r="W15" t="n">
-        <v>375.3271733529485</v>
+        <v>280.8365711007126</v>
       </c>
       <c r="X15" t="n">
-        <v>353.5092623420024</v>
+        <v>259.0186600897666</v>
       </c>
       <c r="Y15" t="n">
-        <v>325.5586526496877</v>
+        <v>231.0680503974519</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.79200524476433</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="C16" t="n">
-        <v>61.7554467957594</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="D16" t="n">
-        <v>111.7806737608035</v>
+        <v>64.90193295487914</v>
       </c>
       <c r="E16" t="n">
-        <v>165.2773446739485</v>
+        <v>118.3986038680241</v>
       </c>
       <c r="F16" t="n">
-        <v>165.2773446739485</v>
+        <v>174.6170411850096</v>
       </c>
       <c r="G16" t="n">
-        <v>165.2773446739485</v>
+        <v>174.6170411850096</v>
       </c>
       <c r="H16" t="n">
-        <v>165.2773446739485</v>
+        <v>174.6170411850096</v>
       </c>
       <c r="I16" t="n">
-        <v>165.2773446739485</v>
+        <v>174.6170411850096</v>
       </c>
       <c r="J16" t="n">
-        <v>165.2773446739485</v>
+        <v>248.9202163780391</v>
       </c>
       <c r="K16" t="n">
-        <v>165.2773446739485</v>
+        <v>248.9202163780391</v>
       </c>
       <c r="L16" t="n">
-        <v>223.1540680139576</v>
+        <v>248.9202163780391</v>
       </c>
       <c r="M16" t="n">
-        <v>223.1540680139576</v>
+        <v>248.9202163780391</v>
       </c>
       <c r="N16" t="n">
-        <v>223.1540680139576</v>
+        <v>378.9750162302941</v>
       </c>
       <c r="O16" t="n">
         <v>378.9750162302941</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>457.8284512372361</v>
+        <v>457.8284512372359</v>
       </c>
       <c r="C17" t="n">
-        <v>405.4562295903762</v>
+        <v>405.4562295903759</v>
       </c>
       <c r="D17" t="n">
         <v>365.6429349525582</v>
       </c>
       <c r="E17" t="n">
-        <v>291.7824156486707</v>
+        <v>291.7824156486706</v>
       </c>
       <c r="F17" t="n">
-        <v>185.8811513161193</v>
+        <v>185.8811513161191</v>
       </c>
       <c r="G17" t="n">
-        <v>64.16962180501955</v>
+        <v>64.16962180501959</v>
       </c>
       <c r="H17" t="n">
         <v>14.87670598983504</v>
       </c>
       <c r="I17" t="n">
-        <v>71.14516206484342</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="J17" t="n">
-        <v>107.1060689477295</v>
+        <v>198.9759426140436</v>
       </c>
       <c r="K17" t="n">
-        <v>107.1060689477295</v>
+        <v>383.0751792382522</v>
       </c>
       <c r="L17" t="n">
-        <v>151.7585581802097</v>
+        <v>490.4404138485879</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3190157494407</v>
+        <v>569.0008714178189</v>
       </c>
       <c r="N17" t="n">
-        <v>303.308227637577</v>
+        <v>641.9900833059552</v>
       </c>
       <c r="O17" t="n">
-        <v>335.3205119453701</v>
+        <v>674.0023676137482</v>
       </c>
       <c r="P17" t="n">
-        <v>335.3205119453701</v>
+        <v>674.0023676137482</v>
       </c>
       <c r="Q17" t="n">
-        <v>519.4197485695787</v>
+        <v>674.0023676137482</v>
       </c>
       <c r="R17" t="n">
-        <v>621.0371258276107</v>
+        <v>674.0023676137482</v>
       </c>
       <c r="S17" t="n">
-        <v>621.0371258276107</v>
+        <v>743.8352994917518</v>
       </c>
       <c r="T17" t="n">
-        <v>696.1119561431623</v>
+        <v>743.8352994917518</v>
       </c>
       <c r="U17" t="n">
         <v>743.8352994917518</v>
       </c>
       <c r="V17" t="n">
-        <v>721.0850109479493</v>
+        <v>721.0850109479491</v>
       </c>
       <c r="W17" t="n">
-        <v>681.1461565287782</v>
+        <v>681.146156528778</v>
       </c>
       <c r="X17" t="n">
-        <v>619.0999784036079</v>
+        <v>619.0999784036077</v>
       </c>
       <c r="Y17" t="n">
-        <v>534.3236456079894</v>
+        <v>534.3236456079892</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>599.458252712851</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="C18" t="n">
-        <v>599.458252712851</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="D18" t="n">
-        <v>599.458252712851</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="E18" t="n">
-        <v>599.458252712851</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="F18" t="n">
-        <v>454.5810876393499</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="G18" t="n">
-        <v>304.3268572622532</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="H18" t="n">
-        <v>177.2521731851155</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="I18" t="n">
-        <v>68.55793338263635</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="J18" t="n">
         <v>14.87670598983504</v>
       </c>
       <c r="K18" t="n">
-        <v>51.70762461639539</v>
+        <v>51.7076246163954</v>
       </c>
       <c r="L18" t="n">
         <v>167.5178822620771</v>
@@ -5613,31 +5613,31 @@
         <v>743.8352994917518</v>
       </c>
       <c r="Q18" t="n">
-        <v>735.983106527717</v>
+        <v>743.8352994917518</v>
       </c>
       <c r="R18" t="n">
-        <v>599.458252712851</v>
+        <v>607.3104456768858</v>
       </c>
       <c r="S18" t="n">
-        <v>599.458252712851</v>
+        <v>569.0869525994731</v>
       </c>
       <c r="T18" t="n">
-        <v>599.458252712851</v>
+        <v>381.2497557581216</v>
       </c>
       <c r="U18" t="n">
-        <v>599.458252712851</v>
+        <v>381.2497557581216</v>
       </c>
       <c r="V18" t="n">
-        <v>599.458252712851</v>
+        <v>193.4125589167701</v>
       </c>
       <c r="W18" t="n">
-        <v>599.458252712851</v>
+        <v>193.4125589167701</v>
       </c>
       <c r="X18" t="n">
-        <v>599.458252712851</v>
+        <v>193.4125589167701</v>
       </c>
       <c r="Y18" t="n">
-        <v>599.458252712851</v>
+        <v>193.4125589167701</v>
       </c>
     </row>
     <row r="19">
@@ -5726,58 +5726,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>457.8284512372359</v>
+        <v>457.828451237236</v>
       </c>
       <c r="C20" t="n">
-        <v>405.4562295903759</v>
+        <v>405.4562295903761</v>
       </c>
       <c r="D20" t="n">
-        <v>365.6429349525579</v>
+        <v>365.6429349525581</v>
       </c>
       <c r="E20" t="n">
-        <v>291.7824156486704</v>
+        <v>291.7824156486706</v>
       </c>
       <c r="F20" t="n">
-        <v>185.8811513161189</v>
+        <v>185.8811513161191</v>
       </c>
       <c r="G20" t="n">
-        <v>64.1696218050196</v>
+        <v>64.16962180501955</v>
       </c>
       <c r="H20" t="n">
         <v>14.87670598983504</v>
       </c>
       <c r="I20" t="n">
-        <v>71.14516206484336</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="J20" t="n">
-        <v>255.2443986890519</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="K20" t="n">
-        <v>255.2443986890519</v>
+        <v>198.9759426140436</v>
       </c>
       <c r="L20" t="n">
-        <v>299.8968879215322</v>
+        <v>383.0751792382522</v>
       </c>
       <c r="M20" t="n">
-        <v>378.4573454907631</v>
+        <v>461.6356368074831</v>
       </c>
       <c r="N20" t="n">
-        <v>451.4465573788995</v>
+        <v>534.6248486956194</v>
       </c>
       <c r="O20" t="n">
-        <v>483.4588416866926</v>
+        <v>566.6371330034125</v>
       </c>
       <c r="P20" t="n">
-        <v>667.5580783109012</v>
+        <v>566.6371330034125</v>
       </c>
       <c r="Q20" t="n">
-        <v>743.8352994917518</v>
+        <v>566.6371330034125</v>
       </c>
       <c r="R20" t="n">
-        <v>743.8352994917518</v>
+        <v>668.2545102614445</v>
       </c>
       <c r="S20" t="n">
-        <v>743.8352994917518</v>
+        <v>738.0874421394481</v>
       </c>
       <c r="T20" t="n">
         <v>743.8352994917518</v>
@@ -5786,16 +5786,16 @@
         <v>743.8352994917518</v>
       </c>
       <c r="V20" t="n">
-        <v>721.0850109479491</v>
+        <v>721.0850109479493</v>
       </c>
       <c r="W20" t="n">
-        <v>681.146156528778</v>
+        <v>681.1461565287782</v>
       </c>
       <c r="X20" t="n">
-        <v>619.0999784036077</v>
+        <v>619.0999784036079</v>
       </c>
       <c r="Y20" t="n">
-        <v>534.3236456079892</v>
+        <v>534.3236456079893</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>256.3951302239878</v>
+        <v>175.6568222288033</v>
       </c>
       <c r="C21" t="n">
-        <v>68.55793338263635</v>
+        <v>175.6568222288033</v>
       </c>
       <c r="D21" t="n">
-        <v>68.55793338263635</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="E21" t="n">
-        <v>68.55793338263635</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="F21" t="n">
-        <v>68.55793338263635</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="G21" t="n">
-        <v>68.55793338263635</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="H21" t="n">
-        <v>68.55793338263635</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="I21" t="n">
-        <v>68.55793338263635</v>
+        <v>14.87670598983504</v>
       </c>
       <c r="J21" t="n">
         <v>14.87670598983504</v>
       </c>
       <c r="K21" t="n">
-        <v>51.70762461639539</v>
+        <v>51.70762461639542</v>
       </c>
       <c r="L21" t="n">
         <v>167.5178822620771</v>
@@ -5850,31 +5850,31 @@
         <v>743.8352994917518</v>
       </c>
       <c r="Q21" t="n">
-        <v>735.983106527717</v>
+        <v>743.8352994917518</v>
       </c>
       <c r="R21" t="n">
-        <v>735.983106527717</v>
+        <v>607.3104456768858</v>
       </c>
       <c r="S21" t="n">
-        <v>632.0695239066907</v>
+        <v>551.3312159115062</v>
       </c>
       <c r="T21" t="n">
-        <v>632.0695239066907</v>
+        <v>551.3312159115062</v>
       </c>
       <c r="U21" t="n">
-        <v>632.0695239066907</v>
+        <v>551.3312159115062</v>
       </c>
       <c r="V21" t="n">
-        <v>444.2323270653393</v>
+        <v>363.4940190701548</v>
       </c>
       <c r="W21" t="n">
-        <v>256.3951302239878</v>
+        <v>363.4940190701548</v>
       </c>
       <c r="X21" t="n">
-        <v>256.3951302239878</v>
+        <v>175.6568222288033</v>
       </c>
       <c r="Y21" t="n">
-        <v>256.3951302239878</v>
+        <v>175.6568222288033</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>457.828451237236</v>
+        <v>457.8284512372358</v>
       </c>
       <c r="C23" t="n">
-        <v>405.456229590376</v>
+        <v>405.4562295903759</v>
       </c>
       <c r="D23" t="n">
-        <v>365.642934952558</v>
+        <v>365.6429349525579</v>
       </c>
       <c r="E23" t="n">
-        <v>291.7824156486701</v>
+        <v>291.7824156486699</v>
       </c>
       <c r="F23" t="n">
         <v>185.8811513161185</v>
       </c>
       <c r="G23" t="n">
-        <v>64.1696218050196</v>
+        <v>64.16962180501953</v>
       </c>
       <c r="H23" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I23" t="n">
-        <v>71.14516206484336</v>
+        <v>71.14516206484342</v>
       </c>
       <c r="J23" t="n">
-        <v>71.14516206484336</v>
+        <v>71.14516206484342</v>
       </c>
       <c r="K23" t="n">
-        <v>71.14516206484336</v>
+        <v>71.14516206484342</v>
       </c>
       <c r="L23" t="n">
-        <v>115.7976512973236</v>
+        <v>115.7976512973237</v>
       </c>
       <c r="M23" t="n">
         <v>194.3581088665546</v>
       </c>
       <c r="N23" t="n">
-        <v>267.3473207546909</v>
+        <v>267.347320754691</v>
       </c>
       <c r="O23" t="n">
-        <v>299.359605062484</v>
+        <v>375.6368262433344</v>
       </c>
       <c r="P23" t="n">
-        <v>449.5868166915754</v>
+        <v>559.7360628675428</v>
       </c>
       <c r="Q23" t="n">
-        <v>449.5868166915754</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="R23" t="n">
-        <v>551.2041939496073</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="S23" t="n">
-        <v>621.0371258276108</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="T23" t="n">
-        <v>696.1119561431624</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="U23" t="n">
-        <v>743.8352994917519</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="V23" t="n">
-        <v>721.0850109479492</v>
+        <v>721.0850109479488</v>
       </c>
       <c r="W23" t="n">
-        <v>681.1461565287783</v>
+        <v>681.146156528778</v>
       </c>
       <c r="X23" t="n">
-        <v>619.099978403608</v>
+        <v>619.0999784036077</v>
       </c>
       <c r="Y23" t="n">
-        <v>534.3236456079893</v>
+        <v>534.3236456079891</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>175.304422272591</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="C24" t="n">
-        <v>175.304422272591</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="D24" t="n">
-        <v>175.304422272591</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="E24" t="n">
-        <v>175.304422272591</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="F24" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="G24" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="H24" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I24" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="J24" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="K24" t="n">
-        <v>51.70762461639544</v>
+        <v>51.70762461639539</v>
       </c>
       <c r="L24" t="n">
         <v>167.5178822620771</v>
       </c>
       <c r="M24" t="n">
-        <v>347.4176547350829</v>
+        <v>347.4176547350827</v>
       </c>
       <c r="N24" t="n">
-        <v>531.5168913592915</v>
+        <v>531.5168913592909</v>
       </c>
       <c r="O24" t="n">
-        <v>661.5493163343178</v>
+        <v>661.5493163343173</v>
       </c>
       <c r="P24" t="n">
-        <v>743.8352994917519</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="Q24" t="n">
-        <v>735.9831065277172</v>
+        <v>743.8352994917514</v>
       </c>
       <c r="R24" t="n">
-        <v>735.9831065277172</v>
+        <v>607.3104456768854</v>
       </c>
       <c r="S24" t="n">
-        <v>735.9831065277172</v>
+        <v>607.3104456768854</v>
       </c>
       <c r="T24" t="n">
-        <v>548.1459096863657</v>
+        <v>419.473248835534</v>
       </c>
       <c r="U24" t="n">
-        <v>360.3087128450142</v>
+        <v>231.6360519941827</v>
       </c>
       <c r="V24" t="n">
-        <v>175.304422272591</v>
+        <v>231.6360519941827</v>
       </c>
       <c r="W24" t="n">
-        <v>175.304422272591</v>
+        <v>231.6360519941827</v>
       </c>
       <c r="X24" t="n">
-        <v>175.304422272591</v>
+        <v>43.79885515283132</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.304422272591</v>
+        <v>14.87670598983503</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="C25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="D25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="E25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="F25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="G25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="H25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="I25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="J25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="K25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="L25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="M25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="N25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="O25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="P25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="R25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="S25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="T25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="U25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="V25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="W25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="X25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.87670598983504</v>
+        <v>14.87670598983503</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1016.417199625508</v>
+        <v>1016.417199625509</v>
       </c>
       <c r="C26" t="n">
-        <v>879.0228057690954</v>
+        <v>879.0228057690961</v>
       </c>
       <c r="D26" t="n">
-        <v>754.1873389217251</v>
+        <v>754.1873389217255</v>
       </c>
       <c r="E26" t="n">
-        <v>595.3046474082848</v>
+        <v>595.3046474082854</v>
       </c>
       <c r="F26" t="n">
-        <v>404.3812108661808</v>
+        <v>404.3812108661813</v>
       </c>
       <c r="G26" t="n">
-        <v>197.6475091455288</v>
+        <v>197.6475091455293</v>
       </c>
       <c r="H26" t="n">
-        <v>63.33242112079246</v>
+        <v>63.3324211207925</v>
       </c>
       <c r="I26" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="J26" t="n">
-        <v>170.6381524874317</v>
+        <v>170.6381524874325</v>
       </c>
       <c r="K26" t="n">
-        <v>374.3541936033914</v>
+        <v>374.3541936033923</v>
       </c>
       <c r="L26" t="n">
-        <v>631.0498798245688</v>
+        <v>631.0498798245696</v>
       </c>
       <c r="M26" t="n">
-        <v>921.6535343824969</v>
+        <v>921.6535343824978</v>
       </c>
       <c r="N26" t="n">
         <v>1206.685943259331</v>
@@ -6242,10 +6242,10 @@
         <v>1450.741424555821</v>
       </c>
       <c r="P26" t="n">
-        <v>1645.958792955441</v>
+        <v>1645.958792955442</v>
       </c>
       <c r="Q26" t="n">
-        <v>1767.771982023426</v>
+        <v>1767.771982023427</v>
       </c>
       <c r="R26" t="n">
         <v>1786.059128298876</v>
@@ -6254,7 +6254,7 @@
         <v>1772.287779350218</v>
       </c>
       <c r="T26" t="n">
-        <v>1763.864760610261</v>
+        <v>1763.864760610262</v>
       </c>
       <c r="U26" t="n">
         <v>1727.534908927787</v>
@@ -6263,10 +6263,10 @@
         <v>1619.762448174432</v>
       </c>
       <c r="W26" t="n">
-        <v>1494.801421545708</v>
+        <v>1494.801421545709</v>
       </c>
       <c r="X26" t="n">
-        <v>1347.733071210985</v>
+        <v>1347.733071210986</v>
       </c>
       <c r="Y26" t="n">
         <v>1177.934566205814</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.72118256597751</v>
+        <v>225.1334568330138</v>
       </c>
       <c r="C27" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="D27" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="E27" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="F27" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="G27" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="H27" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="I27" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="J27" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="K27" t="n">
         <v>72.55210119253789</v>
@@ -6324,31 +6324,31 @@
         <v>783.6616131524517</v>
       </c>
       <c r="Q27" t="n">
-        <v>783.6616131524517</v>
+        <v>775.8094201884169</v>
       </c>
       <c r="R27" t="n">
-        <v>783.6616131524517</v>
+        <v>751.4726940154027</v>
       </c>
       <c r="S27" t="n">
-        <v>783.6616131524517</v>
+        <v>557.8137384002561</v>
       </c>
       <c r="T27" t="n">
-        <v>583.927342362985</v>
+        <v>556.9910838387784</v>
       </c>
       <c r="U27" t="n">
-        <v>344.3025590062994</v>
+        <v>533.7148332733357</v>
       </c>
       <c r="V27" t="n">
-        <v>101.2228409099335</v>
+        <v>290.6351151769698</v>
       </c>
       <c r="W27" t="n">
-        <v>48.17280443146768</v>
+        <v>237.585078698504</v>
       </c>
       <c r="X27" t="n">
-        <v>45.01334283940695</v>
+        <v>234.4256171064433</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.72118256597751</v>
+        <v>225.1334568330138</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="C28" t="n">
-        <v>82.97177039242206</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="D28" t="n">
-        <v>82.97177039242206</v>
+        <v>104.0335558064711</v>
       </c>
       <c r="E28" t="n">
-        <v>82.97177039242206</v>
+        <v>104.0335558064711</v>
       </c>
       <c r="F28" t="n">
-        <v>82.97177039242206</v>
+        <v>104.0335558064711</v>
       </c>
       <c r="G28" t="n">
-        <v>82.97177039242206</v>
+        <v>104.0335558064711</v>
       </c>
       <c r="H28" t="n">
-        <v>82.97177039242206</v>
+        <v>104.0335558064711</v>
       </c>
       <c r="I28" t="n">
-        <v>82.97177039242206</v>
+        <v>104.0335558064711</v>
       </c>
       <c r="J28" t="n">
-        <v>82.97177039242206</v>
+        <v>104.0335558064711</v>
       </c>
       <c r="K28" t="n">
-        <v>82.97177039242206</v>
+        <v>104.0335558064711</v>
       </c>
       <c r="L28" t="n">
-        <v>82.97177039242206</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="M28" t="n">
-        <v>82.97177039242206</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="N28" t="n">
-        <v>82.97177039242206</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="O28" t="n">
-        <v>82.97177039242206</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="P28" t="n">
-        <v>236.4100841303084</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.1459004400451</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="R28" t="n">
-        <v>261.1459004400451</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="S28" t="n">
-        <v>239.573686907854</v>
+        <v>239.5736869078542</v>
       </c>
       <c r="T28" t="n">
-        <v>229.874812944299</v>
+        <v>229.8748129442992</v>
       </c>
       <c r="U28" t="n">
-        <v>154.650738770901</v>
+        <v>154.6507387709011</v>
       </c>
       <c r="V28" t="n">
-        <v>123.4144077394673</v>
+        <v>123.4144077394674</v>
       </c>
       <c r="W28" t="n">
-        <v>46.51980205663407</v>
+        <v>46.51980205663413</v>
       </c>
       <c r="X28" t="n">
-        <v>38.70726877894513</v>
+        <v>38.70726877894516</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1016.41719962551</v>
+        <v>1016.417199625509</v>
       </c>
       <c r="C29" t="n">
-        <v>879.0228057690969</v>
+        <v>879.0228057690967</v>
       </c>
       <c r="D29" t="n">
         <v>754.1873389217262</v>
       </c>
       <c r="E29" t="n">
-        <v>595.304647408286</v>
+        <v>595.3046474082861</v>
       </c>
       <c r="F29" t="n">
-        <v>404.3812108661818</v>
+        <v>404.381210866182</v>
       </c>
       <c r="G29" t="n">
-        <v>197.6475091455297</v>
+        <v>197.64750914553</v>
       </c>
       <c r="H29" t="n">
-        <v>63.3324211207926</v>
+        <v>63.3324211207925</v>
       </c>
       <c r="I29" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="J29" t="n">
-        <v>170.6381524874335</v>
+        <v>170.6381524874325</v>
       </c>
       <c r="K29" t="n">
-        <v>374.3541936033932</v>
+        <v>374.3541936033923</v>
       </c>
       <c r="L29" t="n">
-        <v>631.0498798245706</v>
+        <v>631.0498798245696</v>
       </c>
       <c r="M29" t="n">
-        <v>921.6535343824986</v>
+        <v>921.6535343824977</v>
       </c>
       <c r="N29" t="n">
-        <v>1206.685943259332</v>
+        <v>1206.685943259331</v>
       </c>
       <c r="O29" t="n">
-        <v>1450.741424555822</v>
+        <v>1450.741424555821</v>
       </c>
       <c r="P29" t="n">
-        <v>1645.958792955443</v>
+        <v>1645.958792955442</v>
       </c>
       <c r="Q29" t="n">
         <v>1767.771982023427</v>
@@ -6488,25 +6488,25 @@
         <v>1786.059128298876</v>
       </c>
       <c r="S29" t="n">
-        <v>1772.287779350219</v>
+        <v>1772.287779350218</v>
       </c>
       <c r="T29" t="n">
-        <v>1763.864760610263</v>
+        <v>1763.864760610262</v>
       </c>
       <c r="U29" t="n">
-        <v>1727.534908927789</v>
+        <v>1727.534908927788</v>
       </c>
       <c r="V29" t="n">
-        <v>1619.762448174434</v>
+        <v>1619.762448174433</v>
       </c>
       <c r="W29" t="n">
-        <v>1494.80142154571</v>
+        <v>1494.801421545709</v>
       </c>
       <c r="X29" t="n">
         <v>1347.733071210987</v>
       </c>
       <c r="Y29" t="n">
-        <v>1177.934566205816</v>
+        <v>1177.934566205815</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="C30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="D30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="E30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="F30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="G30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="H30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="I30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="J30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="K30" t="n">
         <v>72.55210119253789</v>
@@ -6561,31 +6561,31 @@
         <v>783.6616131524517</v>
       </c>
       <c r="Q30" t="n">
-        <v>783.6616131524517</v>
+        <v>775.8094201884169</v>
       </c>
       <c r="R30" t="n">
-        <v>647.1367593375857</v>
+        <v>775.8094201884169</v>
       </c>
       <c r="S30" t="n">
-        <v>647.1367593375857</v>
+        <v>775.8094201884169</v>
       </c>
       <c r="T30" t="n">
-        <v>646.3141047761079</v>
+        <v>583.9273423629851</v>
       </c>
       <c r="U30" t="n">
-        <v>623.037854210665</v>
+        <v>560.6510917975423</v>
       </c>
       <c r="V30" t="n">
-        <v>596.306668905542</v>
+        <v>317.5713737011764</v>
       </c>
       <c r="W30" t="n">
-        <v>326.9080996358333</v>
+        <v>48.17280443146775</v>
       </c>
       <c r="X30" t="n">
-        <v>107.4001052525297</v>
+        <v>45.01334283940698</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="C31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="D31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="E31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="F31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="G31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="H31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="I31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="J31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="K31" t="n">
-        <v>180.7216355563508</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="L31" t="n">
-        <v>180.7216355563508</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="M31" t="n">
-        <v>180.7216355563508</v>
+        <v>87.03780594825932</v>
       </c>
       <c r="N31" t="n">
-        <v>180.7216355563508</v>
+        <v>87.03780594825932</v>
       </c>
       <c r="O31" t="n">
-        <v>180.7216355563508</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="P31" t="n">
-        <v>180.7216355563508</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="Q31" t="n">
-        <v>261.1459004400459</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="R31" t="n">
-        <v>261.1459004400459</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="S31" t="n">
-        <v>239.5736869078547</v>
+        <v>239.5736869078542</v>
       </c>
       <c r="T31" t="n">
-        <v>229.8748129442996</v>
+        <v>229.8748129442992</v>
       </c>
       <c r="U31" t="n">
-        <v>154.6507387709015</v>
+        <v>154.6507387709011</v>
       </c>
       <c r="V31" t="n">
-        <v>123.4144077394676</v>
+        <v>123.4144077394674</v>
       </c>
       <c r="W31" t="n">
-        <v>46.51980205663432</v>
+        <v>46.51980205663413</v>
       </c>
       <c r="X31" t="n">
-        <v>38.70726877894526</v>
+        <v>38.70726877894516</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.72118256597753</v>
+        <v>35.72118256597752</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1016.41719962551</v>
+        <v>1016.417199625509</v>
       </c>
       <c r="C32" t="n">
-        <v>879.0228057690972</v>
+        <v>879.0228057690966</v>
       </c>
       <c r="D32" t="n">
-        <v>754.1873389217266</v>
+        <v>754.1873389217262</v>
       </c>
       <c r="E32" t="n">
-        <v>595.3046474082864</v>
+        <v>595.3046474082862</v>
       </c>
       <c r="F32" t="n">
-        <v>404.3812108661823</v>
+        <v>404.381210866182</v>
       </c>
       <c r="G32" t="n">
-        <v>197.6475091455302</v>
+        <v>197.64750914553</v>
       </c>
       <c r="H32" t="n">
-        <v>63.33242112079301</v>
+        <v>63.3324211207925</v>
       </c>
       <c r="I32" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="J32" t="n">
-        <v>170.6381524874323</v>
+        <v>170.6381524874325</v>
       </c>
       <c r="K32" t="n">
-        <v>374.3541936033921</v>
+        <v>374.3541936033923</v>
       </c>
       <c r="L32" t="n">
-        <v>631.0498798245694</v>
+        <v>631.0498798245696</v>
       </c>
       <c r="M32" t="n">
-        <v>921.6535343824974</v>
+        <v>921.6535343824978</v>
       </c>
       <c r="N32" t="n">
         <v>1206.685943259331</v>
@@ -6716,22 +6716,22 @@
         <v>1450.741424555821</v>
       </c>
       <c r="P32" t="n">
-        <v>1645.958792955441</v>
+        <v>1645.958792955442</v>
       </c>
       <c r="Q32" t="n">
-        <v>1767.771982023426</v>
+        <v>1767.771982023427</v>
       </c>
       <c r="R32" t="n">
         <v>1786.059128298876</v>
       </c>
       <c r="S32" t="n">
-        <v>1772.287779350218</v>
+        <v>1772.287779350219</v>
       </c>
       <c r="T32" t="n">
         <v>1763.864760610262</v>
       </c>
       <c r="U32" t="n">
-        <v>1727.534908927788</v>
+        <v>1727.534908927789</v>
       </c>
       <c r="V32" t="n">
         <v>1619.762448174433</v>
@@ -6740,10 +6740,10 @@
         <v>1494.801421545709</v>
       </c>
       <c r="X32" t="n">
-        <v>1347.733071210987</v>
+        <v>1347.733071210986</v>
       </c>
       <c r="Y32" t="n">
-        <v>1177.934566205816</v>
+        <v>1177.934566205815</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.72118256597751</v>
+        <v>90.25575201506568</v>
       </c>
       <c r="C33" t="n">
-        <v>35.72118256597751</v>
+        <v>90.25575201506568</v>
       </c>
       <c r="D33" t="n">
-        <v>35.72118256597751</v>
+        <v>90.25575201506568</v>
       </c>
       <c r="E33" t="n">
-        <v>35.72118256597751</v>
+        <v>90.25575201506568</v>
       </c>
       <c r="F33" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="G33" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="H33" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="I33" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="J33" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="K33" t="n">
         <v>72.55210119253789</v>
@@ -6798,31 +6798,31 @@
         <v>783.6616131524517</v>
       </c>
       <c r="Q33" t="n">
-        <v>783.6616131524517</v>
+        <v>775.8094201884169</v>
       </c>
       <c r="R33" t="n">
-        <v>783.6616131524517</v>
+        <v>639.2845663735509</v>
       </c>
       <c r="S33" t="n">
-        <v>783.6616131524517</v>
+        <v>639.2845663735509</v>
       </c>
       <c r="T33" t="n">
-        <v>782.8389585909739</v>
+        <v>638.4619118120733</v>
       </c>
       <c r="U33" t="n">
-        <v>560.6510917975424</v>
+        <v>615.1856612466305</v>
       </c>
       <c r="V33" t="n">
-        <v>317.5713737011765</v>
+        <v>372.1059431502646</v>
       </c>
       <c r="W33" t="n">
-        <v>48.17280443146785</v>
+        <v>102.7073738805559</v>
       </c>
       <c r="X33" t="n">
-        <v>45.01334283940703</v>
+        <v>99.54791228849514</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.72118256597751</v>
+        <v>90.25575201506568</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="C34" t="n">
-        <v>48.10980870495821</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="D34" t="n">
-        <v>48.10980870495821</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="E34" t="n">
-        <v>119.8936258935526</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="F34" t="n">
-        <v>119.8936258935526</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="G34" t="n">
-        <v>119.8936258935526</v>
+        <v>35.72118256597752</v>
       </c>
       <c r="H34" t="n">
-        <v>119.8936258935526</v>
+        <v>83.54595386873049</v>
       </c>
       <c r="I34" t="n">
-        <v>168.5555789715668</v>
+        <v>132.2079069467448</v>
       </c>
       <c r="J34" t="n">
-        <v>261.1459004400457</v>
+        <v>132.2079069467448</v>
       </c>
       <c r="K34" t="n">
-        <v>261.1459004400457</v>
+        <v>132.2079069467448</v>
       </c>
       <c r="L34" t="n">
-        <v>261.1459004400457</v>
+        <v>132.2079069467448</v>
       </c>
       <c r="M34" t="n">
-        <v>261.1459004400457</v>
+        <v>132.2079069467448</v>
       </c>
       <c r="N34" t="n">
-        <v>261.1459004400457</v>
+        <v>250.7627181147499</v>
       </c>
       <c r="O34" t="n">
-        <v>261.1459004400457</v>
+        <v>250.7627181147499</v>
       </c>
       <c r="P34" t="n">
-        <v>261.1459004400457</v>
+        <v>250.7627181147499</v>
       </c>
       <c r="Q34" t="n">
-        <v>261.1459004400457</v>
+        <v>250.7627181147499</v>
       </c>
       <c r="R34" t="n">
-        <v>261.1459004400457</v>
+        <v>261.1459004400453</v>
       </c>
       <c r="S34" t="n">
-        <v>239.5736869078546</v>
+        <v>239.5736869078542</v>
       </c>
       <c r="T34" t="n">
-        <v>229.8748129442994</v>
+        <v>229.8748129442992</v>
       </c>
       <c r="U34" t="n">
-        <v>154.6507387709014</v>
+        <v>154.6507387709011</v>
       </c>
       <c r="V34" t="n">
-        <v>123.4144077394675</v>
+        <v>123.4144077394674</v>
       </c>
       <c r="W34" t="n">
-        <v>46.51980205663425</v>
+        <v>46.51980205663413</v>
       </c>
       <c r="X34" t="n">
-        <v>38.70726877894522</v>
+        <v>38.70726877894516</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.72118256597751</v>
+        <v>35.72118256597752</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.2984538575786</v>
+        <v>623.2984538575797</v>
       </c>
       <c r="C35" t="n">
-        <v>544.3425268717128</v>
+        <v>544.3425268717139</v>
       </c>
       <c r="D35" t="n">
-        <v>477.945526894889</v>
+        <v>477.9455268948898</v>
       </c>
       <c r="E35" t="n">
-        <v>377.5013022519956</v>
+        <v>377.5013022519963</v>
       </c>
       <c r="F35" t="n">
-        <v>245.0163325804382</v>
+        <v>245.0163325804388</v>
       </c>
       <c r="G35" t="n">
-        <v>96.72109773033293</v>
+        <v>96.72109773033307</v>
       </c>
       <c r="H35" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="I35" t="n">
-        <v>51.05824304839115</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="J35" t="n">
-        <v>243.250754349669</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="K35" t="n">
-        <v>243.250754349669</v>
+        <v>278.7948742059061</v>
       </c>
       <c r="L35" t="n">
-        <v>287.9032435821492</v>
+        <v>536.7452718356697</v>
       </c>
       <c r="M35" t="n">
-        <v>366.4637011513802</v>
+        <v>615.3057294049006</v>
       </c>
       <c r="N35" t="n">
-        <v>439.4529130395165</v>
+        <v>873.2561270346641</v>
       </c>
       <c r="O35" t="n">
-        <v>673.1053739701784</v>
+        <v>966.6611411518534</v>
       </c>
       <c r="P35" t="n">
-        <v>673.1053739701784</v>
+        <v>966.6611411518534</v>
       </c>
       <c r="Q35" t="n">
-        <v>852.1941044179861</v>
+        <v>966.6611411518534</v>
       </c>
       <c r="R35" t="n">
-        <v>927.7567920732583</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="S35" t="n">
-        <v>971.5350343485022</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.555175061294</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="U35" t="n">
-        <v>1042.223828807124</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="V35" t="n">
-        <v>992.8898349243154</v>
+        <v>992.889834924317</v>
       </c>
       <c r="W35" t="n">
-        <v>926.3672751661385</v>
+        <v>926.36727516614</v>
       </c>
       <c r="X35" t="n">
-        <v>837.7373917019622</v>
+        <v>837.7373917019636</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.3773535673378</v>
+        <v>726.377353567339</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.84447657614248</v>
+        <v>210.2567508431788</v>
       </c>
       <c r="C36" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="D36" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="E36" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="F36" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="G36" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="H36" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="I36" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="J36" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="K36" t="n">
-        <v>57.67539520270284</v>
+        <v>57.67539520270287</v>
       </c>
       <c r="L36" t="n">
         <v>173.4856528483845</v>
@@ -7041,25 +7041,25 @@
         <v>632.2600533477506</v>
       </c>
       <c r="S36" t="n">
-        <v>457.5236583121667</v>
+        <v>632.2600533477506</v>
       </c>
       <c r="T36" t="n">
-        <v>240.3524709594461</v>
+        <v>632.2600533477506</v>
       </c>
       <c r="U36" t="n">
-        <v>240.3524709594461</v>
+        <v>632.2600533477506</v>
       </c>
       <c r="V36" t="n">
-        <v>240.3524709594461</v>
+        <v>429.7647452264824</v>
       </c>
       <c r="W36" t="n">
-        <v>240.3524709594461</v>
+        <v>429.7647452264824</v>
       </c>
       <c r="X36" t="n">
-        <v>20.84447657614248</v>
+        <v>210.2567508431788</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.84447657614248</v>
+        <v>210.2567508431788</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="C37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="D37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="E37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="F37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="G37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="H37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="I37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="J37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="K37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="L37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="M37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="N37" t="n">
-        <v>56.08622269128027</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="O37" t="n">
-        <v>56.08622269128027</v>
+        <v>37.63008387899391</v>
       </c>
       <c r="P37" t="n">
-        <v>56.08622269128027</v>
+        <v>37.63008387899391</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.08622269128027</v>
+        <v>37.63008387899391</v>
       </c>
       <c r="R37" t="n">
-        <v>56.08622269128027</v>
+        <v>37.63008387899391</v>
       </c>
       <c r="S37" t="n">
-        <v>56.08622269128027</v>
+        <v>37.63008387899391</v>
       </c>
       <c r="T37" t="n">
-        <v>56.08622269128027</v>
+        <v>37.63008387899391</v>
       </c>
       <c r="U37" t="n">
-        <v>39.30061538842898</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="V37" t="n">
-        <v>39.30061538842898</v>
+        <v>39.30061538842913</v>
       </c>
       <c r="W37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="X37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.2984538575788</v>
+        <v>623.2984538575797</v>
       </c>
       <c r="C38" t="n">
-        <v>544.3425268717128</v>
+        <v>544.3425268717139</v>
       </c>
       <c r="D38" t="n">
-        <v>477.945526894889</v>
+        <v>477.9455268948898</v>
       </c>
       <c r="E38" t="n">
-        <v>377.5013022519956</v>
+        <v>377.5013022519963</v>
       </c>
       <c r="F38" t="n">
-        <v>245.0163325804382</v>
+        <v>245.0163325804388</v>
       </c>
       <c r="G38" t="n">
-        <v>96.72109773033293</v>
+        <v>96.72109773033307</v>
       </c>
       <c r="H38" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="I38" t="n">
-        <v>51.05824304839116</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="J38" t="n">
-        <v>243.250754349669</v>
+        <v>213.0369878774202</v>
       </c>
       <c r="K38" t="n">
-        <v>243.250754349669</v>
+        <v>470.9873855071838</v>
       </c>
       <c r="L38" t="n">
-        <v>287.9032435821492</v>
+        <v>515.639874739664</v>
       </c>
       <c r="M38" t="n">
-        <v>383.1426920326224</v>
+        <v>758.1336021633887</v>
       </c>
       <c r="N38" t="n">
-        <v>641.0930896623856</v>
+        <v>831.122814051525</v>
       </c>
       <c r="O38" t="n">
-        <v>673.1053739701787</v>
+        <v>863.135098359318</v>
       </c>
       <c r="P38" t="n">
-        <v>673.1053739701787</v>
+        <v>863.135098359318</v>
       </c>
       <c r="Q38" t="n">
-        <v>852.1941044179863</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="R38" t="n">
-        <v>927.7567920732586</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="S38" t="n">
-        <v>971.5350343485024</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.555175061294</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="U38" t="n">
-        <v>1042.223828807124</v>
+        <v>1042.223828807126</v>
       </c>
       <c r="V38" t="n">
-        <v>992.8898349243157</v>
+        <v>992.8898349243169</v>
       </c>
       <c r="W38" t="n">
-        <v>926.3672751661388</v>
+        <v>926.36727516614</v>
       </c>
       <c r="X38" t="n">
-        <v>837.7373917019626</v>
+        <v>837.7373917019636</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.3773535673381</v>
+        <v>726.377353567339</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>525.7051890662508</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="C39" t="n">
-        <v>336.2929147992145</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="D39" t="n">
-        <v>336.2929147992145</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="E39" t="n">
-        <v>336.2929147992145</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="F39" t="n">
-        <v>175.8651985164586</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="G39" t="n">
-        <v>25.61096813936186</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="H39" t="n">
-        <v>25.61096813936186</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="I39" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="J39" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="K39" t="n">
-        <v>57.67539520270285</v>
+        <v>57.67539520270287</v>
       </c>
       <c r="L39" t="n">
         <v>173.4856528483845</v>
@@ -7263,40 +7263,40 @@
         <v>353.3854253213902</v>
       </c>
       <c r="N39" t="n">
-        <v>556.4664990301562</v>
+        <v>556.4664990301561</v>
       </c>
       <c r="O39" t="n">
-        <v>686.4989240051826</v>
+        <v>686.4989240051825</v>
       </c>
       <c r="P39" t="n">
-        <v>768.7849071626167</v>
+        <v>768.7849071626166</v>
       </c>
       <c r="Q39" t="n">
-        <v>768.7849071626167</v>
+        <v>768.7849071626166</v>
       </c>
       <c r="R39" t="n">
-        <v>768.7849071626167</v>
+        <v>768.7849071626166</v>
       </c>
       <c r="S39" t="n">
-        <v>768.7849071626167</v>
+        <v>575.12595154747</v>
       </c>
       <c r="T39" t="n">
-        <v>768.7849071626167</v>
+        <v>503.5489780291941</v>
       </c>
       <c r="U39" t="n">
-        <v>768.7849071626167</v>
+        <v>263.9241946725084</v>
       </c>
       <c r="V39" t="n">
-        <v>525.7051890662508</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="W39" t="n">
-        <v>525.7051890662508</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="X39" t="n">
-        <v>525.7051890662508</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="Y39" t="n">
-        <v>525.7051890662508</v>
+        <v>20.84447657614251</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="C40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="D40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="E40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="F40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="G40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="H40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="I40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="J40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="K40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="L40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="M40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="N40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="O40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="P40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="R40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="S40" t="n">
-        <v>20.84447657614248</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="T40" t="n">
-        <v>56.08622269128027</v>
+        <v>56.08622269128053</v>
       </c>
       <c r="U40" t="n">
-        <v>39.30061538842899</v>
+        <v>39.30061538842913</v>
       </c>
       <c r="V40" t="n">
-        <v>39.30061538842899</v>
+        <v>39.30061538842913</v>
       </c>
       <c r="W40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="X40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.84447657614248</v>
+        <v>20.84447657614251</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>727.2812794441005</v>
+        <v>541.0516560439935</v>
       </c>
       <c r="C41" t="n">
-        <v>617.498124142503</v>
+        <v>431.2685007423959</v>
       </c>
       <c r="D41" t="n">
-        <v>520.2738958499476</v>
+        <v>334.0442724498403</v>
       </c>
       <c r="E41" t="n">
-        <v>389.0024428913225</v>
+        <v>202.7728194912147</v>
       </c>
       <c r="F41" t="n">
-        <v>225.6902449040333</v>
+        <v>39.46062150392596</v>
       </c>
       <c r="G41" t="n">
-        <v>129.1604851839193</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="H41" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="I41" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="J41" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="K41" t="n">
-        <v>253.2344517375311</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="L41" t="n">
-        <v>297.8869409700114</v>
+        <v>263.5419455308246</v>
       </c>
       <c r="M41" t="n">
-        <v>568.9564109946102</v>
+        <v>541.4428124915391</v>
       </c>
       <c r="N41" t="n">
-        <v>641.9456228827465</v>
+        <v>819.3436794522537</v>
       </c>
       <c r="O41" t="n">
-        <v>673.9579071905396</v>
+        <v>1090.460935656318</v>
       </c>
       <c r="P41" t="n">
-        <v>896.2370504977343</v>
+        <v>1090.460935656318</v>
       </c>
       <c r="Q41" t="n">
-        <v>1045.112014473293</v>
+        <v>1090.460935656318</v>
       </c>
       <c r="R41" t="n">
-        <v>1090.460935656317</v>
+        <v>1090.460935656318</v>
       </c>
       <c r="S41" t="n">
-        <v>1104.025411459312</v>
+        <v>1104.025411459313</v>
       </c>
       <c r="T41" t="n">
         <v>1122.831785699856</v>
       </c>
       <c r="U41" t="n">
-        <v>1122.831785699856</v>
+        <v>1114.113172572197</v>
       </c>
       <c r="V41" t="n">
-        <v>1122.831785699856</v>
+        <v>1033.951950373657</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.831785699856</v>
+        <v>936.6021622997486</v>
       </c>
       <c r="X41" t="n">
-        <v>1003.374673919948</v>
+        <v>817.1450505198407</v>
       </c>
       <c r="Y41" t="n">
-        <v>861.1874074695914</v>
+        <v>674.9577840694844</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>372.2966262637893</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="C42" t="n">
-        <v>182.884351996753</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="D42" t="n">
-        <v>182.884351996753</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="E42" t="n">
-        <v>182.884351996753</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="F42" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="G42" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="H42" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="I42" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="J42" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="K42" t="n">
-        <v>59.28755434055748</v>
+        <v>59.28755434055749</v>
       </c>
       <c r="L42" t="n">
         <v>175.0978119862392</v>
@@ -7518,22 +7518,22 @@
         <v>770.3970663004712</v>
       </c>
       <c r="T42" t="n">
-        <v>553.2258789477506</v>
+        <v>757.1206814050638</v>
       </c>
       <c r="U42" t="n">
-        <v>553.2258789477506</v>
+        <v>517.4958980483782</v>
       </c>
       <c r="V42" t="n">
-        <v>553.2258789477506</v>
+        <v>517.4958980483782</v>
       </c>
       <c r="W42" t="n">
-        <v>372.2966262637893</v>
+        <v>248.0973287786695</v>
       </c>
       <c r="X42" t="n">
-        <v>372.2966262637893</v>
+        <v>248.0973287786695</v>
       </c>
       <c r="Y42" t="n">
-        <v>372.2966262637893</v>
+        <v>22.45663571399713</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="C43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="D43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="E43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="F43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="G43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="H43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="I43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="J43" t="n">
-        <v>22.45663571399711</v>
+        <v>62.05821674378006</v>
       </c>
       <c r="K43" t="n">
-        <v>22.45663571399711</v>
+        <v>62.05821674378006</v>
       </c>
       <c r="L43" t="n">
-        <v>22.45663571399711</v>
+        <v>62.05821674378006</v>
       </c>
       <c r="M43" t="n">
-        <v>22.45663571399711</v>
+        <v>62.05821674378006</v>
       </c>
       <c r="N43" t="n">
-        <v>105.4220224013232</v>
+        <v>62.05821674378006</v>
       </c>
       <c r="O43" t="n">
-        <v>105.4220224013232</v>
+        <v>62.05821674378006</v>
       </c>
       <c r="P43" t="n">
-        <v>105.4220224013232</v>
+        <v>62.05821674378006</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.4220224013232</v>
+        <v>62.05821674378006</v>
       </c>
       <c r="R43" t="n">
-        <v>105.4220224013232</v>
+        <v>99.50317397664965</v>
       </c>
       <c r="S43" t="n">
-        <v>105.4220224013232</v>
+        <v>105.4220224013233</v>
       </c>
       <c r="T43" t="n">
-        <v>122.9779309372171</v>
+        <v>122.9779309372172</v>
       </c>
       <c r="U43" t="n">
-        <v>75.3650953186341</v>
+        <v>75.36509531863419</v>
       </c>
       <c r="V43" t="n">
-        <v>71.74000284201531</v>
+        <v>71.74000284201537</v>
       </c>
       <c r="W43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="X43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>541.0516560439925</v>
+        <v>541.0516560439934</v>
       </c>
       <c r="C44" t="n">
-        <v>431.268500742395</v>
+        <v>431.2685007423959</v>
       </c>
       <c r="D44" t="n">
-        <v>334.0442724498394</v>
+        <v>334.0442724498403</v>
       </c>
       <c r="E44" t="n">
-        <v>308.2829483497563</v>
+        <v>202.7728194912148</v>
       </c>
       <c r="F44" t="n">
-        <v>308.2829483497563</v>
+        <v>202.7728194912148</v>
       </c>
       <c r="G44" t="n">
         <v>129.1604851839193</v>
       </c>
       <c r="H44" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="I44" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="J44" t="n">
-        <v>22.45663571399711</v>
+        <v>147.9597226513075</v>
       </c>
       <c r="K44" t="n">
-        <v>22.45663571399711</v>
+        <v>378.7375386748415</v>
       </c>
       <c r="L44" t="n">
-        <v>67.10912494647738</v>
+        <v>656.638405635556</v>
       </c>
       <c r="M44" t="n">
-        <v>145.6695825157083</v>
+        <v>735.1988632047869</v>
       </c>
       <c r="N44" t="n">
-        <v>423.5704494764226</v>
+        <v>1013.099730165501</v>
       </c>
       <c r="O44" t="n">
-        <v>687.5223829935348</v>
+        <v>1045.112014473294</v>
       </c>
       <c r="P44" t="n">
-        <v>909.8015263007296</v>
+        <v>1045.112014473294</v>
       </c>
       <c r="Q44" t="n">
-        <v>1058.676490276289</v>
+        <v>1045.112014473294</v>
       </c>
       <c r="R44" t="n">
-        <v>1104.025411459312</v>
+        <v>1090.460935656318</v>
       </c>
       <c r="S44" t="n">
-        <v>1104.025411459312</v>
+        <v>1104.025411459313</v>
       </c>
       <c r="T44" t="n">
         <v>1122.831785699856</v>
       </c>
       <c r="U44" t="n">
-        <v>1114.113172572196</v>
+        <v>1114.113172572197</v>
       </c>
       <c r="V44" t="n">
-        <v>1033.951950373656</v>
+        <v>1033.951950373657</v>
       </c>
       <c r="W44" t="n">
-        <v>936.6021622997475</v>
+        <v>936.6021622997486</v>
       </c>
       <c r="X44" t="n">
-        <v>817.1450505198396</v>
+        <v>817.1450505198407</v>
       </c>
       <c r="Y44" t="n">
-        <v>674.9577840694834</v>
+        <v>674.9577840694843</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.9187789343966</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="C45" t="n">
-        <v>149.5313197911348</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="D45" t="n">
-        <v>149.5313197911348</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="E45" t="n">
-        <v>149.5313197911348</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="F45" t="n">
-        <v>149.5313197911348</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="G45" t="n">
-        <v>149.5313197911348</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="H45" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="I45" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="J45" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="K45" t="n">
-        <v>59.28755434055748</v>
+        <v>59.28755434055749</v>
       </c>
       <c r="L45" t="n">
         <v>175.0978119862392</v>
@@ -7752,25 +7752,25 @@
         <v>770.3970663004712</v>
       </c>
       <c r="S45" t="n">
-        <v>770.3970663004712</v>
+        <v>576.7381106853246</v>
       </c>
       <c r="T45" t="n">
-        <v>770.3970663004712</v>
+        <v>359.566923332604</v>
       </c>
       <c r="U45" t="n">
-        <v>770.3970663004712</v>
+        <v>226.431286564583</v>
       </c>
       <c r="V45" t="n">
-        <v>527.3173482041053</v>
+        <v>226.431286564583</v>
       </c>
       <c r="W45" t="n">
-        <v>257.9187789343966</v>
+        <v>200.9924886409322</v>
       </c>
       <c r="X45" t="n">
-        <v>257.9187789343966</v>
+        <v>200.9924886409322</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.9187789343966</v>
+        <v>200.9924886409322</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="C46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="D46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="E46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="F46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="G46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="H46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="I46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="J46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="K46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="L46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="M46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="N46" t="n">
-        <v>22.45663571399711</v>
+        <v>122.9779309372172</v>
       </c>
       <c r="O46" t="n">
-        <v>22.45663571399711</v>
+        <v>122.9779309372172</v>
       </c>
       <c r="P46" t="n">
-        <v>122.9779309372171</v>
+        <v>122.9779309372172</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.9779309372171</v>
+        <v>122.9779309372172</v>
       </c>
       <c r="R46" t="n">
-        <v>122.9779309372171</v>
+        <v>122.9779309372172</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9779309372171</v>
+        <v>122.9779309372172</v>
       </c>
       <c r="T46" t="n">
-        <v>122.9779309372171</v>
+        <v>122.9779309372172</v>
       </c>
       <c r="U46" t="n">
-        <v>75.3650953186341</v>
+        <v>75.36509531863419</v>
       </c>
       <c r="V46" t="n">
-        <v>71.74000284201531</v>
+        <v>71.74000284201537</v>
       </c>
       <c r="W46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="X46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.45663571399711</v>
+        <v>22.45663571399713</v>
       </c>
     </row>
   </sheetData>
@@ -8778,10 +8778,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>291.4402857619385</v>
+        <v>291.4402857619384</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913205</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>291.4402857619385</v>
+        <v>291.4402857619381</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3740578391994</v>
+        <v>178.3740578391993</v>
       </c>
       <c r="C11" t="n">
-        <v>154.4923148425449</v>
+        <v>96.93559502615521</v>
       </c>
       <c r="D11" t="n">
-        <v>42.12076059476782</v>
+        <v>142.0589771035932</v>
       </c>
       <c r="E11" t="n">
-        <v>175.7657295230022</v>
+        <v>175.7657295230021</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4860671013795</v>
+        <v>207.4860671013794</v>
       </c>
       <c r="G11" t="n">
-        <v>37.17940475520405</v>
+        <v>223.1382296281419</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>45.80699109396323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>32.10550038386705</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>142.183281287133</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>164.0695317560722</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>186.572384879816</v>
+        <v>186.5723848798158</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.53636768586756</v>
+        <v>178.3740578391993</v>
       </c>
       <c r="C14" t="n">
         <v>154.4923148425448</v>
@@ -23510,10 +23510,10 @@
         <v>223.1382296281419</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.530350892644549</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>45.80699109396323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.10550038386705</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>26.81065347725286</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>164.0695317560721</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0.6135600068778899</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.486899575160351e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>81.76677641126597</v>
+        <v>160.4972926021491</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>105.6368109752229</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,13 +25682,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.631426996382633</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>79.35960997655471</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>96.37629019316958</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25871,13 +25871,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>104.4550275699573</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>161.6790760074162</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>104.4550275699561</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708286.8841696576</v>
+        <v>708286.8841696577</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775632.3742311982</v>
+        <v>775632.3742311983</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>815787.0955382251</v>
+        <v>815787.095538225</v>
       </c>
       <c r="C2" t="n">
         <v>815787.095538225</v>
@@ -26320,40 +26320,40 @@
         <v>815787.0955382251</v>
       </c>
       <c r="E2" t="n">
-        <v>722586.2863903453</v>
+        <v>722586.286390345</v>
       </c>
       <c r="F2" t="n">
-        <v>722586.2863903452</v>
+        <v>722586.2863903447</v>
       </c>
       <c r="G2" t="n">
+        <v>817439.6576941458</v>
+      </c>
+      <c r="H2" t="n">
+        <v>817439.6576941459</v>
+      </c>
+      <c r="I2" t="n">
         <v>817439.6576941462</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>817439.6576941451</v>
+      </c>
+      <c r="K2" t="n">
+        <v>817439.6576941453</v>
+      </c>
+      <c r="L2" t="n">
+        <v>817439.657694145</v>
+      </c>
+      <c r="M2" t="n">
+        <v>817439.6576941452</v>
+      </c>
+      <c r="N2" t="n">
         <v>817439.6576941455</v>
       </c>
-      <c r="I2" t="n">
-        <v>817439.6576941453</v>
-      </c>
-      <c r="J2" t="n">
-        <v>817439.6576941453</v>
-      </c>
-      <c r="K2" t="n">
-        <v>817439.6576941458</v>
-      </c>
-      <c r="L2" t="n">
-        <v>817439.6576941451</v>
-      </c>
-      <c r="M2" t="n">
-        <v>817439.6576941453</v>
-      </c>
-      <c r="N2" t="n">
-        <v>817439.6576941451</v>
-      </c>
       <c r="O2" t="n">
-        <v>797844.2036477436</v>
+        <v>797844.2036477438</v>
       </c>
       <c r="P2" t="n">
-        <v>797844.2036477437</v>
+        <v>797844.2036477438</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>290729.3449665033</v>
+        <v>290729.3449665034</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82115.05232972281</v>
+        <v>82115.05232972276</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157405.8885070443</v>
+        <v>157405.8885070444</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82115.05232972284</v>
+        <v>82115.05232972276</v>
       </c>
       <c r="M3" t="n">
-        <v>46283.26576147299</v>
+        <v>46283.2657614729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69667.41717343019</v>
+        <v>69667.41717343027</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>344366.7118028515</v>
       </c>
       <c r="G4" t="n">
+        <v>402782.0614115414</v>
+      </c>
+      <c r="H4" t="n">
         <v>402782.0614115415</v>
-      </c>
-      <c r="H4" t="n">
-        <v>402782.0614115414</v>
       </c>
       <c r="I4" t="n">
         <v>402782.0614115415</v>
@@ -26442,7 +26442,7 @@
         <v>403678.2960146479</v>
       </c>
       <c r="K4" t="n">
-        <v>403678.2960146478</v>
+        <v>403678.2960146479</v>
       </c>
       <c r="L4" t="n">
         <v>403678.2960146479</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29893.45137378653</v>
+        <v>29893.45137378654</v>
       </c>
       <c r="F5" t="n">
         <v>29893.45137378655</v>
@@ -26500,16 +26500,16 @@
         <v>47288.16478400913</v>
       </c>
       <c r="M5" t="n">
-        <v>40845.6030683611</v>
+        <v>40845.60306836111</v>
       </c>
       <c r="N5" t="n">
-        <v>40845.6030683611</v>
+        <v>40845.60306836111</v>
       </c>
       <c r="O5" t="n">
-        <v>39505.14589842812</v>
+        <v>39505.14589842813</v>
       </c>
       <c r="P5" t="n">
-        <v>39505.14589842812</v>
+        <v>39505.14589842813</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>341348.3538032899</v>
+        <v>341343.8874190846</v>
       </c>
       <c r="C6" t="n">
-        <v>341348.3538032897</v>
+        <v>341343.8874190845</v>
       </c>
       <c r="D6" t="n">
-        <v>341348.3538032899</v>
+        <v>341343.8874190847</v>
       </c>
       <c r="E6" t="n">
-        <v>57596.77824720398</v>
+        <v>57340.41778422026</v>
       </c>
       <c r="F6" t="n">
-        <v>348326.123213707</v>
+        <v>348069.7627507234</v>
       </c>
       <c r="G6" t="n">
-        <v>294019.929661211</v>
+        <v>294019.9296612107</v>
       </c>
       <c r="H6" t="n">
-        <v>376134.9819909332</v>
+        <v>376134.9819909335</v>
       </c>
       <c r="I6" t="n">
-        <v>376134.981990933</v>
+        <v>376134.9819909338</v>
       </c>
       <c r="J6" t="n">
-        <v>209067.308388444</v>
+        <v>209067.3083884437</v>
       </c>
       <c r="K6" t="n">
-        <v>366473.1968954889</v>
+        <v>366473.1968954883</v>
       </c>
       <c r="L6" t="n">
-        <v>284358.1445657653</v>
+        <v>284358.1445657652</v>
       </c>
       <c r="M6" t="n">
         <v>327445.4143702082</v>
       </c>
       <c r="N6" t="n">
-        <v>373728.680131681</v>
+        <v>373728.6801316813</v>
       </c>
       <c r="O6" t="n">
-        <v>297795.533606372</v>
+        <v>297742.5729197602</v>
       </c>
       <c r="P6" t="n">
-        <v>367462.9507798022</v>
+        <v>367409.9900931904</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="F2" t="n">
         <v>195.713182538634</v>
       </c>
       <c r="G2" t="n">
+        <v>298.3569979507875</v>
+      </c>
+      <c r="H2" t="n">
         <v>298.3569979507876</v>
       </c>
-      <c r="H2" t="n">
-        <v>298.3569979507875</v>
-      </c>
       <c r="I2" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="J2" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="K2" t="n">
         <v>214.1850474633304</v>
@@ -26716,10 +26716,10 @@
         <v>214.1850474633304</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="O2" t="n">
         <v>241.5201736325973</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="F3" t="n">
         <v>97.87813204915106</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="H3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="I3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="J3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="K3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="L3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="M3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="N3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="O3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="P3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="F4" t="n">
         <v>185.958824872938</v>
@@ -26808,28 +26808,28 @@
         <v>185.958824872938</v>
       </c>
       <c r="I4" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="J4" t="n">
-        <v>446.5147820747189</v>
+        <v>446.5147820747191</v>
       </c>
       <c r="K4" t="n">
         <v>446.5147820747191</v>
       </c>
       <c r="L4" t="n">
-        <v>446.5147820747189</v>
+        <v>446.5147820747191</v>
       </c>
       <c r="M4" t="n">
-        <v>260.555957201781</v>
+        <v>260.5559572017814</v>
       </c>
       <c r="N4" t="n">
-        <v>260.555957201781</v>
+        <v>260.5559572017814</v>
       </c>
       <c r="O4" t="n">
-        <v>280.7079464249639</v>
+        <v>280.7079464249641</v>
       </c>
       <c r="P4" t="n">
-        <v>280.7079464249639</v>
+        <v>280.7079464249641</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="F2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>102.6438154121535</v>
@@ -26938,13 +26938,13 @@
         <v>102.6438154121535</v>
       </c>
       <c r="M2" t="n">
-        <v>57.85408220184124</v>
+        <v>57.85408220184112</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.02227601860253</v>
+        <v>81.02227601860264</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.87813204915108</v>
+        <v>97.87813204915106</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.5559572017809</v>
+        <v>260.5559572017812</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>20.15198922318285</v>
+        <v>20.15198922318274</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="K2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>102.6438154121535</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="C11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="D11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="E11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="F11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="G11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="H11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="I11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="J11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="K11" t="n">
-        <v>8.411268558320515</v>
+        <v>194.3700934312584</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>89.80309646261588</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.2323482182547</v>
       </c>
       <c r="O11" t="n">
-        <v>104.7051130722873</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>195.7131825386339</v>
+        <v>16.99578645361268</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.7131825386339</v>
+        <v>91.14142214213371</v>
       </c>
       <c r="R11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="T11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="U11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="V11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="W11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="X11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="Y11" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>33.6370426944475</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7516880733257</v>
@@ -28217,25 +28217,25 @@
         <v>135.1596052767173</v>
       </c>
       <c r="S12" t="n">
-        <v>5.763541186057162</v>
+        <v>5.763541186057211</v>
       </c>
       <c r="T12" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="U12" t="n">
-        <v>195.7131825386339</v>
+        <v>51.26971065018091</v>
       </c>
       <c r="V12" t="n">
-        <v>195.7131825386339</v>
+        <v>54.69009604246435</v>
       </c>
       <c r="W12" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="X12" t="n">
-        <v>195.7131825386339</v>
+        <v>179.2428501001098</v>
       </c>
       <c r="Y12" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
     </row>
     <row r="13">
@@ -28251,22 +28251,22 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>195.7131825386339</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>195.7131825386339</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>195.7131825386339</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.7067135783481</v>
       </c>
       <c r="H13" t="n">
-        <v>195.7131825386339</v>
+        <v>165.8771976625699</v>
       </c>
       <c r="I13" t="n">
-        <v>172.0523650741657</v>
+        <v>165.0315595057402</v>
       </c>
       <c r="J13" t="n">
         <v>120.6594702224426</v>
@@ -28278,43 +28278,43 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M13" t="n">
-        <v>195.7131825386339</v>
+        <v>32.01370344037026</v>
       </c>
       <c r="N13" t="n">
-        <v>17.42893296543291</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O13" t="n">
-        <v>38.31828535041534</v>
+        <v>195.713182538634</v>
       </c>
       <c r="P13" t="n">
-        <v>59.19685176849579</v>
+        <v>195.713182538634</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7142670197192</v>
+        <v>195.713182538634</v>
       </c>
       <c r="R13" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="T13" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="V13" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="W13" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="X13" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.7131825386339</v>
+        <v>195.713182538634</v>
       </c>
     </row>
     <row r="14">
@@ -28348,28 +28348,28 @@
         <v>195.713182538634</v>
       </c>
       <c r="J14" t="n">
-        <v>195.713182538634</v>
+        <v>77.90527986590116</v>
       </c>
       <c r="K14" t="n">
         <v>8.411268558320522</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>140.8553003956852</v>
       </c>
       <c r="M14" t="n">
-        <v>104.705113072287</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>32.60629158783961</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.6231841579955</v>
       </c>
       <c r="P14" t="n">
         <v>195.713182538634</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.713182538634</v>
+        <v>91.14142214213371</v>
       </c>
       <c r="R14" t="n">
         <v>195.713182538634</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28412,13 +28412,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>134.5486352739248</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7516880733257</v>
       </c>
       <c r="H15" t="n">
         <v>125.8039372363663</v>
@@ -28448,16 +28448,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S15" t="n">
-        <v>146.5613828328814</v>
+        <v>191.7223660589951</v>
       </c>
       <c r="T15" t="n">
-        <v>195.713182538634</v>
+        <v>29.0406506062554</v>
       </c>
       <c r="U15" t="n">
         <v>195.713182538634</v>
@@ -28466,7 +28466,7 @@
         <v>195.713182538634</v>
       </c>
       <c r="W15" t="n">
-        <v>195.713182538634</v>
+        <v>80.74575870407364</v>
       </c>
       <c r="X15" t="n">
         <v>195.713182538634</v>
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.713182538634</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>195.713182538634</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>195.713182538634</v>
@@ -28494,7 +28494,7 @@
         <v>195.713182538634</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>195.713182538634</v>
       </c>
       <c r="G16" t="n">
         <v>168.7067135783481</v>
@@ -28506,22 +28506,22 @@
         <v>165.0315595057402</v>
       </c>
       <c r="J16" t="n">
-        <v>120.6594702224426</v>
+        <v>195.713182538634</v>
       </c>
       <c r="K16" t="n">
         <v>67.71994343265027</v>
       </c>
       <c r="L16" t="n">
-        <v>91.49606842484013</v>
+        <v>33.03473171776022</v>
       </c>
       <c r="M16" t="n">
         <v>26.14777596768342</v>
       </c>
       <c r="N16" t="n">
-        <v>17.42893296543292</v>
+        <v>148.7974176646804</v>
       </c>
       <c r="O16" t="n">
-        <v>195.713182538634</v>
+        <v>38.31828535041534</v>
       </c>
       <c r="P16" t="n">
         <v>59.1968517684958</v>
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="C17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="D17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="E17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="F17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="G17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="H17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="I17" t="n">
-        <v>298.3569979507876</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="J17" t="n">
-        <v>114.2294282324527</v>
+        <v>263.8641047388391</v>
       </c>
       <c r="K17" t="n">
-        <v>8.411268558320515</v>
+        <v>194.3700934312585</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>63.34620745237926</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>16.99578645361267</v>
+        <v>16.99578645361268</v>
       </c>
       <c r="Q17" t="n">
-        <v>277.1002470150717</v>
+        <v>91.14142214213371</v>
       </c>
       <c r="R17" t="n">
-        <v>298.3569979507876</v>
+        <v>195.713182538634</v>
       </c>
       <c r="S17" t="n">
-        <v>227.8186829225011</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="T17" t="n">
-        <v>298.3569979507876</v>
+        <v>222.5238360158869</v>
       </c>
       <c r="U17" t="n">
-        <v>298.3569979507876</v>
+        <v>250.1516006289799</v>
       </c>
       <c r="V17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="W17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="X17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.3569979507876</v>
+        <v>298.3569979507875</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28652,19 +28652,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>15.3950456971622</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7516880733257</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.8039372363663</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.6072974044544</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>53.1444151188733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.7223660589951</v>
+        <v>153.8811079123565</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9994754791934</v>
+        <v>29.0406506062554</v>
       </c>
       <c r="U18" t="n">
         <v>237.2285355231188</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>54.69009604246429</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28752,16 +28752,16 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M19" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N19" t="n">
-        <v>17.42893296543291</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O19" t="n">
         <v>38.31828535041534</v>
       </c>
       <c r="P19" t="n">
-        <v>59.19685176849579</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q19" t="n">
         <v>127.7142670197192</v>
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="C20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="D20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="E20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="F20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="G20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="H20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="I20" t="n">
-        <v>298.3569979507875</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="J20" t="n">
-        <v>263.8641047388391</v>
+        <v>77.90527986590116</v>
       </c>
       <c r="K20" t="n">
-        <v>8.411268558320515</v>
+        <v>194.3700934312585</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>140.8553003956852</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>202.9546113265506</v>
+        <v>16.99578645361268</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.189120304609</v>
+        <v>91.14142214213371</v>
       </c>
       <c r="R20" t="n">
-        <v>195.713182538634</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="S20" t="n">
-        <v>227.8186829225011</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="T20" t="n">
-        <v>222.5238360158869</v>
+        <v>228.3297525333655</v>
       </c>
       <c r="U20" t="n">
         <v>250.1516006289799</v>
       </c>
       <c r="V20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="W20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="X20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
     </row>
     <row r="21">
@@ -28880,10 +28880,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>1.559326651427966</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28901,7 +28901,7 @@
         <v>107.6072974044544</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>53.1444151188733</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R21" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>88.84791926417907</v>
+        <v>136.3029285912693</v>
       </c>
       <c r="T21" t="n">
         <v>214.9994754791934</v>
@@ -28940,10 +28940,10 @@
         <v>54.69009604246429</v>
       </c>
       <c r="W21" t="n">
-        <v>80.74575870407364</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>31.35408956653265</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28989,16 +28989,16 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M22" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N22" t="n">
-        <v>17.42893296543291</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O22" t="n">
         <v>38.31828535041534</v>
       </c>
       <c r="P22" t="n">
-        <v>59.19685176849579</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q22" t="n">
         <v>127.7142670197192</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="C23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="D23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="E23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="F23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="G23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="H23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="I23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="J23" t="n">
-        <v>77.90527986590115</v>
+        <v>77.90527986590116</v>
       </c>
       <c r="K23" t="n">
-        <v>8.411268558320515</v>
+        <v>8.411268558320522</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>77.04769816247507</v>
       </c>
       <c r="P23" t="n">
-        <v>168.7404446648161</v>
+        <v>202.9546113265505</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.14142214213371</v>
+        <v>277.1002470150715</v>
       </c>
       <c r="R23" t="n">
-        <v>298.3569979507875</v>
+        <v>195.713182538634</v>
       </c>
       <c r="S23" t="n">
-        <v>298.3569979507875</v>
+        <v>227.8186829225011</v>
       </c>
       <c r="T23" t="n">
-        <v>298.3569979507875</v>
+        <v>222.5238360158869</v>
       </c>
       <c r="U23" t="n">
-        <v>298.3569979507875</v>
+        <v>250.1516006289799</v>
       </c>
       <c r="V23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="W23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="X23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.3569979507875</v>
+        <v>298.3569979507876</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7516880733257</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R24" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.7223660589951</v>
       </c>
       <c r="T24" t="n">
-        <v>29.04065060625538</v>
+        <v>29.04065060625553</v>
       </c>
       <c r="U24" t="n">
-        <v>51.26971065018083</v>
+        <v>51.26971065018097</v>
       </c>
       <c r="V24" t="n">
-        <v>57.49467324870324</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>31.35408956653276</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>194.7513584626593</v>
       </c>
     </row>
     <row r="25">
@@ -29226,16 +29226,16 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M25" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N25" t="n">
-        <v>17.42893296543291</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O25" t="n">
         <v>38.31828535041534</v>
       </c>
       <c r="P25" t="n">
-        <v>59.19685176849579</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q25" t="n">
         <v>127.7142670197192</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="C26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="D26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="E26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="F26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="G26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="H26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="I26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="J26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="K26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="L26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="M26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="N26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="O26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="P26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="R26" t="n">
         <v>214.1850474633305</v>
       </c>
       <c r="S26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="T26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="U26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="V26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="W26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="X26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="Y26" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.773671034394422</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>135.1596052767173</v>
+        <v>111.0662463654332</v>
       </c>
       <c r="S27" t="n">
-        <v>191.7223660589951</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>17.26254739762138</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="X27" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="Y27" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
     </row>
     <row r="28">
@@ -29433,10 +29433,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>214.1850474633305</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29460,46 +29460,46 @@
         <v>67.71994343265027</v>
       </c>
       <c r="L28" t="n">
-        <v>33.03473171776022</v>
+        <v>191.7340697314715</v>
       </c>
       <c r="M28" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N28" t="n">
-        <v>17.42893296543291</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O28" t="n">
         <v>38.31828535041534</v>
       </c>
       <c r="P28" t="n">
-        <v>214.1850474633305</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.6999400598572</v>
+        <v>127.7142670197192</v>
       </c>
       <c r="R28" t="n">
         <v>203.6969845084866</v>
       </c>
       <c r="S28" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="T28" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="U28" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="V28" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="W28" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="X28" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.1850474633305</v>
+        <v>214.1850474633304</v>
       </c>
     </row>
     <row r="29">
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.773671034394422</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>135.1596052767173</v>
       </c>
       <c r="S30" t="n">
         <v>191.7223660589951</v>
       </c>
       <c r="T30" t="n">
-        <v>214.1850474633304</v>
+        <v>25.03621843201591</v>
       </c>
       <c r="U30" t="n">
         <v>214.1850474633304</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>214.1850474633304</v>
       </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>152.422152674339</v>
+        <v>214.1850474633304</v>
       </c>
     </row>
     <row r="31">
@@ -29694,25 +29694,25 @@
         <v>120.6594702224426</v>
       </c>
       <c r="K31" t="n">
-        <v>214.1850474633304</v>
+        <v>67.71994343265027</v>
       </c>
       <c r="L31" t="n">
         <v>33.03473171776022</v>
       </c>
       <c r="M31" t="n">
-        <v>26.14777596768341</v>
+        <v>77.98274908109937</v>
       </c>
       <c r="N31" t="n">
-        <v>17.42893296543291</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O31" t="n">
-        <v>38.31828535041534</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="P31" t="n">
-        <v>59.19685176849579</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q31" t="n">
-        <v>208.9508982153708</v>
+        <v>127.7142670197192</v>
       </c>
       <c r="R31" t="n">
         <v>203.6969845084866</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>104.8342153653311</v>
       </c>
       <c r="G33" t="n">
         <v>148.7516880733257</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.773671034394422</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>135.1596052767173</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.7223660589951</v>
@@ -29882,7 +29882,7 @@
         <v>214.1850474633304</v>
       </c>
       <c r="U33" t="n">
-        <v>17.26254739762169</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29907,13 +29907,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>178.9709447487205</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>214.1850474633304</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29922,13 +29922,13 @@
         <v>168.7067135783481</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8771976625699</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="I34" t="n">
         <v>214.1850474633304</v>
       </c>
       <c r="J34" t="n">
-        <v>214.1850474633304</v>
+        <v>120.6594702224426</v>
       </c>
       <c r="K34" t="n">
         <v>67.71994343265027</v>
@@ -29937,22 +29937,22 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M34" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N34" t="n">
-        <v>17.42893296543291</v>
+        <v>137.1812674785693</v>
       </c>
       <c r="O34" t="n">
         <v>38.31828535041534</v>
       </c>
       <c r="P34" t="n">
-        <v>59.19685176849579</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q34" t="n">
         <v>127.7142670197192</v>
       </c>
       <c r="R34" t="n">
-        <v>203.6969845084866</v>
+        <v>214.1850474633304</v>
       </c>
       <c r="S34" t="n">
         <v>214.1850474633304</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0391296651717</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0391296651717</v>
+        <v>77.90527986590116</v>
       </c>
       <c r="K35" t="n">
-        <v>8.411268558320515</v>
+        <v>268.9672257601019</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>215.4524327245286</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>186.8294805470982</v>
       </c>
       <c r="O35" t="n">
-        <v>203.6769460837059</v>
+        <v>62.01285839332948</v>
       </c>
       <c r="P35" t="n">
-        <v>16.99578645361267</v>
+        <v>16.99578645361268</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0391296651717</v>
+        <v>91.14142214213371</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0391296651717</v>
+        <v>227.8186829225011</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0391296651717</v>
+        <v>222.5238360158869</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0391296651717</v>
+        <v>250.1516006289799</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.773671034394422</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>18.73333497376709</v>
+        <v>191.7223660589951</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9994754791934</v>
       </c>
       <c r="U36" t="n">
         <v>237.2285355231188</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>40.17856587534675</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30174,16 +30174,16 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M37" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N37" t="n">
-        <v>53.02665631405694</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O37" t="n">
-        <v>38.31828535041534</v>
+        <v>55.27344424218443</v>
       </c>
       <c r="P37" t="n">
-        <v>59.19685176849579</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q37" t="n">
         <v>127.7142670197192</v>
@@ -30198,13 +30198,13 @@
         <v>223.78693268725</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>263.7515796413051</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0391296651717</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="K38" t="n">
-        <v>8.411268558320515</v>
+        <v>268.9672257601019</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>16.8474655366083</v>
+        <v>165.5891614691855</v>
       </c>
       <c r="N38" t="n">
-        <v>186.8294805470978</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>16.99578645361267</v>
+        <v>16.99578645361268</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0391296651717</v>
+        <v>195.713182538634</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0391296651717</v>
+        <v>227.8186829225011</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0391296651717</v>
+        <v>222.5238360158869</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0391296651717</v>
+        <v>250.1516006289799</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,16 +30311,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7516880733257</v>
       </c>
       <c r="H39" t="n">
         <v>125.8039372363663</v>
       </c>
       <c r="I39" t="n">
-        <v>102.8884707568672</v>
+        <v>107.6072974044544</v>
       </c>
       <c r="J39" t="n">
         <v>53.1444151188733</v>
@@ -30344,19 +30344,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.773671034394422</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R39" t="n">
         <v>135.1596052767173</v>
       </c>
       <c r="S39" t="n">
-        <v>191.7223660589951</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9994754791934</v>
+        <v>144.1382716961002</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2285355231188</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>168.7067135783481</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8771976625699</v>
+        <v>201.4749210111941</v>
       </c>
       <c r="I40" t="n">
         <v>165.0315595057402</v>
@@ -30411,16 +30411,16 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M40" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N40" t="n">
-        <v>17.42893296543291</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O40" t="n">
         <v>38.31828535041534</v>
       </c>
       <c r="P40" t="n">
-        <v>59.19685176849579</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q40" t="n">
         <v>127.7142670197192</v>
@@ -30432,16 +30432,16 @@
         <v>235.5415388601996</v>
       </c>
       <c r="T40" t="n">
-        <v>259.384656035874</v>
+        <v>223.78693268725</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0391296651717</v>
+        <v>272.0391296651716</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,31 +30481,31 @@
         <v>241.5201736325973</v>
       </c>
       <c r="J41" t="n">
-        <v>77.90527986590115</v>
+        <v>77.90527986590116</v>
       </c>
       <c r="K41" t="n">
+        <v>8.411268558320522</v>
+      </c>
+      <c r="L41" t="n">
+        <v>198.4169904892397</v>
+      </c>
+      <c r="M41" t="n">
+        <v>201.3539488802864</v>
+      </c>
+      <c r="N41" t="n">
+        <v>206.9814697702809</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.5201736325973</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>194.4535479347151</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>241.5201736325973</v>
+        <v>16.99578645361268</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5201736325973</v>
+        <v>91.14142214213371</v>
       </c>
       <c r="R41" t="n">
-        <v>241.5201736325973</v>
+        <v>195.713182538634</v>
       </c>
       <c r="S41" t="n">
         <v>241.5201736325973</v>
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7516880733257</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.773671034394422</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R42" t="n">
         <v>135.1596052767173</v>
@@ -30590,22 +30590,22 @@
         <v>191.7223660589951</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>201.85585443274</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2285355231188</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>87.58462341988991</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30639,7 +30639,7 @@
         <v>165.0315595057402</v>
       </c>
       <c r="J43" t="n">
-        <v>120.6594702224426</v>
+        <v>160.6610672222234</v>
       </c>
       <c r="K43" t="n">
         <v>67.71994343265027</v>
@@ -30648,25 +30648,25 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M43" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N43" t="n">
-        <v>101.2323538617219</v>
+        <v>17.42893296543292</v>
       </c>
       <c r="O43" t="n">
         <v>38.31828535041534</v>
       </c>
       <c r="P43" t="n">
-        <v>59.19685176849579</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q43" t="n">
         <v>127.7142670197192</v>
       </c>
       <c r="R43" t="n">
-        <v>203.6969845084866</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="S43" t="n">
-        <v>235.5415388601996</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="T43" t="n">
         <v>241.5201736325973</v>
@@ -30718,34 +30718,34 @@
         <v>241.5201736325973</v>
       </c>
       <c r="J44" t="n">
-        <v>77.90527986590115</v>
+        <v>204.6760747520732</v>
       </c>
       <c r="K44" t="n">
-        <v>8.411268558320515</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.6044219477113</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>206.9814697702807</v>
+        <v>206.9814697702809</v>
       </c>
       <c r="O44" t="n">
-        <v>234.2824739488073</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>241.5201736325973</v>
+        <v>16.99578645361268</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.5201736325973</v>
+        <v>91.14142214213371</v>
       </c>
       <c r="R44" t="n">
         <v>241.5201736325973</v>
       </c>
       <c r="S44" t="n">
-        <v>227.8186829225011</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="T44" t="n">
         <v>241.5201736325973</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>80.21456697253667</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30791,7 +30791,7 @@
         <v>148.7516880733257</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.8039372363663</v>
       </c>
       <c r="I45" t="n">
         <v>107.6072974044544</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.773671034394422</v>
+        <v>7.773671034394425</v>
       </c>
       <c r="R45" t="n">
         <v>135.1596052767173</v>
       </c>
       <c r="S45" t="n">
-        <v>191.7223660589951</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9994754791934</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2285355231188</v>
+        <v>105.424255122778</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.5201736325973</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30885,16 +30885,16 @@
         <v>33.03473171776022</v>
       </c>
       <c r="M46" t="n">
-        <v>26.14777596768341</v>
+        <v>26.14777596768342</v>
       </c>
       <c r="N46" t="n">
-        <v>17.42893296543291</v>
+        <v>118.9655948070694</v>
       </c>
       <c r="O46" t="n">
         <v>38.31828535041534</v>
       </c>
       <c r="P46" t="n">
-        <v>160.7335136101321</v>
+        <v>59.1968517684958</v>
       </c>
       <c r="Q46" t="n">
         <v>127.7142670197192</v>
@@ -31753,28 +31753,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H11" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I11" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J11" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K11" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L11" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M11" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N11" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O11" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P11" t="n">
         <v>56.58290547269542</v>
@@ -31786,10 +31786,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S11" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T11" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U11" t="n">
         <v>0.03147839422686263</v>
@@ -31832,34 +31832,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H12" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I12" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J12" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K12" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L12" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M12" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N12" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O12" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P12" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R12" t="n">
         <v>13.07134752158286</v>
@@ -31868,7 +31868,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U12" t="n">
         <v>0.01385067906355912</v>
@@ -31923,7 +31923,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L13" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M13" t="n">
         <v>27.66742017907396</v>
@@ -31941,16 +31941,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R13" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S13" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32227,28 +32227,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H17" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I17" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J17" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K17" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L17" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M17" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N17" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O17" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P17" t="n">
         <v>56.58290547269542</v>
@@ -32260,10 +32260,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S17" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T17" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U17" t="n">
         <v>0.03147839422686263</v>
@@ -32306,34 +32306,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H18" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I18" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J18" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K18" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L18" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M18" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N18" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O18" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P18" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R18" t="n">
         <v>13.07134752158286</v>
@@ -32342,7 +32342,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U18" t="n">
         <v>0.01385067906355912</v>
@@ -32397,7 +32397,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L19" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M19" t="n">
         <v>27.66742017907396</v>
@@ -32415,16 +32415,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R19" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S19" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,28 +32464,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H20" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I20" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J20" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K20" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L20" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M20" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N20" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O20" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P20" t="n">
         <v>56.58290547269542</v>
@@ -32497,10 +32497,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S20" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T20" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U20" t="n">
         <v>0.03147839422686263</v>
@@ -32543,34 +32543,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H21" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I21" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J21" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K21" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L21" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M21" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N21" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O21" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P21" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R21" t="n">
         <v>13.07134752158286</v>
@@ -32579,7 +32579,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U21" t="n">
         <v>0.01385067906355912</v>
@@ -32634,7 +32634,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L22" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M22" t="n">
         <v>27.66742017907396</v>
@@ -32652,16 +32652,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R22" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S22" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,28 +32701,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H23" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I23" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J23" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K23" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L23" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M23" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N23" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O23" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P23" t="n">
         <v>56.58290547269542</v>
@@ -32734,10 +32734,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S23" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T23" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U23" t="n">
         <v>0.03147839422686263</v>
@@ -32780,34 +32780,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H24" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I24" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J24" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K24" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L24" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M24" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N24" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O24" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P24" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R24" t="n">
         <v>13.07134752158286</v>
@@ -32816,7 +32816,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U24" t="n">
         <v>0.01385067906355912</v>
@@ -32871,7 +32871,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L25" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M25" t="n">
         <v>27.66742017907396</v>
@@ -32889,16 +32889,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R25" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S25" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,28 +32938,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H26" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I26" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J26" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K26" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L26" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M26" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N26" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O26" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P26" t="n">
         <v>56.58290547269542</v>
@@ -32971,10 +32971,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S26" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T26" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U26" t="n">
         <v>0.03147839422686263</v>
@@ -33017,34 +33017,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H27" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I27" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J27" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K27" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L27" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M27" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N27" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O27" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P27" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R27" t="n">
         <v>13.07134752158286</v>
@@ -33053,7 +33053,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U27" t="n">
         <v>0.01385067906355912</v>
@@ -33108,7 +33108,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L28" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M28" t="n">
         <v>27.66742017907396</v>
@@ -33126,16 +33126,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R28" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S28" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,28 +33175,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H29" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I29" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J29" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K29" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L29" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M29" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N29" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O29" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P29" t="n">
         <v>56.58290547269542</v>
@@ -33208,10 +33208,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S29" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T29" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U29" t="n">
         <v>0.03147839422686263</v>
@@ -33254,34 +33254,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H30" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I30" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J30" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K30" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L30" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M30" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N30" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O30" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P30" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R30" t="n">
         <v>13.07134752158286</v>
@@ -33290,7 +33290,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U30" t="n">
         <v>0.01385067906355912</v>
@@ -33345,7 +33345,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L31" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M31" t="n">
         <v>27.66742017907396</v>
@@ -33363,16 +33363,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R31" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S31" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,28 +33412,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H32" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I32" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J32" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K32" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L32" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M32" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N32" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O32" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P32" t="n">
         <v>56.58290547269542</v>
@@ -33445,10 +33445,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S32" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T32" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U32" t="n">
         <v>0.03147839422686263</v>
@@ -33491,34 +33491,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H33" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I33" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J33" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K33" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L33" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M33" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N33" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O33" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P33" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q33" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R33" t="n">
         <v>13.07134752158286</v>
@@ -33527,7 +33527,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U33" t="n">
         <v>0.01385067906355912</v>
@@ -33582,7 +33582,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L34" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M34" t="n">
         <v>27.66742017907396</v>
@@ -33600,16 +33600,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R34" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S34" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,28 +33649,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H35" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I35" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J35" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K35" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L35" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M35" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N35" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O35" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P35" t="n">
         <v>56.58290547269542</v>
@@ -33682,10 +33682,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S35" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T35" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U35" t="n">
         <v>0.03147839422686263</v>
@@ -33728,34 +33728,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H36" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I36" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J36" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K36" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L36" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M36" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N36" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O36" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P36" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R36" t="n">
         <v>13.07134752158286</v>
@@ -33764,7 +33764,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U36" t="n">
         <v>0.01385067906355912</v>
@@ -33819,7 +33819,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L37" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M37" t="n">
         <v>27.66742017907396</v>
@@ -33837,16 +33837,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R37" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S37" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,28 +33886,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H38" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I38" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J38" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K38" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L38" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M38" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N38" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O38" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P38" t="n">
         <v>56.58290547269542</v>
@@ -33919,10 +33919,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S38" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T38" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U38" t="n">
         <v>0.03147839422686263</v>
@@ -33965,34 +33965,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H39" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I39" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J39" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K39" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L39" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M39" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N39" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O39" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P39" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R39" t="n">
         <v>13.07134752158286</v>
@@ -34001,7 +34001,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U39" t="n">
         <v>0.01385067906355912</v>
@@ -34056,7 +34056,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L40" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M40" t="n">
         <v>27.66742017907396</v>
@@ -34074,16 +34074,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R40" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S40" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,28 +34123,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H41" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I41" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J41" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K41" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L41" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M41" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N41" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O41" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P41" t="n">
         <v>56.58290547269542</v>
@@ -34156,10 +34156,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S41" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T41" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U41" t="n">
         <v>0.03147839422686263</v>
@@ -34202,34 +34202,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H42" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I42" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J42" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K42" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L42" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M42" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N42" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O42" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P42" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R42" t="n">
         <v>13.07134752158286</v>
@@ -34238,7 +34238,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U42" t="n">
         <v>0.01385067906355912</v>
@@ -34293,7 +34293,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L43" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M43" t="n">
         <v>27.66742017907396</v>
@@ -34311,16 +34311,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R43" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S43" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,28 +34360,28 @@
         <v>0.3934799278357829</v>
       </c>
       <c r="H44" t="n">
-        <v>4.029726310948213</v>
+        <v>4.029726310948212</v>
       </c>
       <c r="I44" t="n">
-        <v>15.16963491788904</v>
+        <v>15.16963491788903</v>
       </c>
       <c r="J44" t="n">
         <v>33.39611702515231</v>
       </c>
       <c r="K44" t="n">
-        <v>50.05212237044101</v>
+        <v>50.052122370441</v>
       </c>
       <c r="L44" t="n">
-        <v>62.09408371194537</v>
+        <v>62.09408371194536</v>
       </c>
       <c r="M44" t="n">
         <v>69.09163237859497</v>
       </c>
       <c r="N44" t="n">
-        <v>70.20960722355839</v>
+        <v>70.20960722355838</v>
       </c>
       <c r="O44" t="n">
-        <v>66.29694119114133</v>
+        <v>66.29694119114131</v>
       </c>
       <c r="P44" t="n">
         <v>56.58290547269542</v>
@@ -34393,10 +34393,10 @@
         <v>24.71693351691452</v>
       </c>
       <c r="S44" t="n">
-        <v>8.966423855557913</v>
+        <v>8.966423855557911</v>
       </c>
       <c r="T44" t="n">
-        <v>1.722458384101141</v>
+        <v>1.72245838410114</v>
       </c>
       <c r="U44" t="n">
         <v>0.03147839422686263</v>
@@ -34439,34 +34439,34 @@
         <v>0.2105303217660985</v>
       </c>
       <c r="H45" t="n">
-        <v>2.033279686530479</v>
+        <v>2.033279686530478</v>
       </c>
       <c r="I45" t="n">
-        <v>7.248522043262605</v>
+        <v>7.248522043262604</v>
       </c>
       <c r="J45" t="n">
         <v>19.89049851387513</v>
       </c>
       <c r="K45" t="n">
-        <v>33.99603007220373</v>
+        <v>33.99603007220372</v>
       </c>
       <c r="L45" t="n">
-        <v>45.71185780276627</v>
+        <v>45.71185780276626</v>
       </c>
       <c r="M45" t="n">
-        <v>53.34358196678733</v>
+        <v>53.34358196678732</v>
       </c>
       <c r="N45" t="n">
-        <v>54.75542785266613</v>
+        <v>54.75542785266612</v>
       </c>
       <c r="O45" t="n">
-        <v>50.09051914405942</v>
+        <v>50.09051914405941</v>
       </c>
       <c r="P45" t="n">
         <v>40.20205767128245</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.87401089772164</v>
+        <v>26.87401089772163</v>
       </c>
       <c r="R45" t="n">
         <v>13.07134752158286</v>
@@ -34475,7 +34475,7 @@
         <v>3.910508388944854</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8485849372940548</v>
+        <v>0.8485849372940547</v>
       </c>
       <c r="U45" t="n">
         <v>0.01385067906355912</v>
@@ -34530,7 +34530,7 @@
         <v>20.50627094406804</v>
       </c>
       <c r="L46" t="n">
-        <v>26.24096674642323</v>
+        <v>26.24096674642322</v>
       </c>
       <c r="M46" t="n">
         <v>27.66742017907396</v>
@@ -34548,16 +34548,16 @@
         <v>14.77959793942181</v>
       </c>
       <c r="R46" t="n">
-        <v>7.936151493690181</v>
+        <v>7.93615149369018</v>
       </c>
       <c r="S46" t="n">
-        <v>3.075940641610206</v>
+        <v>3.075940641610205</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7541429846409998</v>
+        <v>0.7541429846409997</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009627357250736181</v>
+        <v>0.00962735725073618</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.8079026727328</v>
+        <v>117.8079026727329</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="L11" t="n">
-        <v>45.1035244772528</v>
+        <v>45.10352447725279</v>
       </c>
       <c r="M11" t="n">
-        <v>79.35399754467772</v>
+        <v>169.1570940072936</v>
       </c>
       <c r="N11" t="n">
-        <v>73.7264766546832</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="O11" t="n">
-        <v>137.0407537872298</v>
+        <v>32.33564071494249</v>
       </c>
       <c r="P11" t="n">
-        <v>178.7173960850212</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.5717603965002</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L12" t="n">
         <v>116.9800582279613</v>
@@ -35498,13 +35498,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N12" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729379</v>
       </c>
       <c r="O12" t="n">
-        <v>131.345883813158</v>
+        <v>131.3458838131577</v>
       </c>
       <c r="P12" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,22 +35547,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50.53053228792322</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>54.03704132640894</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>56.78630032018728</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>29.83598487606405</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.020805568425552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35574,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>169.5654065709505</v>
+        <v>5.865927472686839</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>157.3948971882187</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>136.5163307701382</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.99891551891487</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.8079026727329</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>45.10352447725279</v>
+        <v>185.958824872938</v>
       </c>
       <c r="M14" t="n">
-        <v>184.0591106169647</v>
+        <v>79.35399754467772</v>
       </c>
       <c r="N14" t="n">
-        <v>73.72647665468318</v>
+        <v>106.3327682425228</v>
       </c>
       <c r="O14" t="n">
-        <v>32.33564071494249</v>
+        <v>185.958824872938</v>
       </c>
       <c r="P14" t="n">
         <v>178.7173960850214</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.5717603965003</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L15" t="n">
         <v>116.9800582279613</v>
@@ -35778,10 +35778,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.09626187366595</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>29.25600156666169</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>50.53053228792334</v>
@@ -35790,7 +35790,7 @@
         <v>54.03704132640905</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>56.78630032018739</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>75.05371231619139</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>58.46133670707991</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>131.3684846992475</v>
       </c>
       <c r="O16" t="n">
-        <v>157.3948971882187</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.83682431819029</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>36.32414836655155</v>
+        <v>185.958824872938</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>185.958824872938</v>
       </c>
       <c r="L17" t="n">
-        <v>45.1035244772528</v>
+        <v>108.4497319296321</v>
       </c>
       <c r="M17" t="n">
         <v>79.35399754467772</v>
       </c>
       <c r="N17" t="n">
-        <v>73.7264766546832</v>
+        <v>73.72647665468318</v>
       </c>
       <c r="O17" t="n">
-        <v>32.3356407149425</v>
+        <v>32.33564071494249</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>185.958824872938</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.6438154121535</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.53831502828641</v>
       </c>
       <c r="T17" t="n">
-        <v>75.83316193490066</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>48.20539732180762</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.20294810763672</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L18" t="n">
         <v>116.9800582279613</v>
@@ -35978,7 +35978,7 @@
         <v>131.345883813158</v>
       </c>
       <c r="P18" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,40 +36115,40 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.83682431819023</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>185.958824872938</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>45.1035244772528</v>
+        <v>185.958824872938</v>
       </c>
       <c r="M20" t="n">
         <v>79.35399754467772</v>
       </c>
       <c r="N20" t="n">
-        <v>73.7264766546832</v>
+        <v>73.72647665468318</v>
       </c>
       <c r="O20" t="n">
-        <v>32.3356407149425</v>
+        <v>32.33564071494249</v>
       </c>
       <c r="P20" t="n">
-        <v>185.958824872938</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>77.04769816247533</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.6438154121535</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.53831502828646</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.805916517478539</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.20294810763672</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L21" t="n">
         <v>116.9800582279613</v>
@@ -36215,7 +36215,7 @@
         <v>131.345883813158</v>
       </c>
       <c r="P21" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.83682431819023</v>
+        <v>56.83682431819029</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>45.1035244772528</v>
+        <v>45.10352447725279</v>
       </c>
       <c r="M23" t="n">
         <v>79.35399754467772</v>
       </c>
       <c r="N23" t="n">
-        <v>73.7264766546832</v>
+        <v>73.72647665468318</v>
       </c>
       <c r="O23" t="n">
-        <v>32.3356407149425</v>
+        <v>109.3833388774176</v>
       </c>
       <c r="P23" t="n">
-        <v>151.7446582112034</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>185.9588248729378</v>
       </c>
       <c r="R23" t="n">
-        <v>102.6438154121535</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.53831502828641</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>75.8331619349006</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>48.20539732180757</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L24" t="n">
         <v>116.9800582279613</v>
@@ -36446,13 +36446,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N24" t="n">
-        <v>185.958824872938</v>
+        <v>185.9588248729375</v>
       </c>
       <c r="O24" t="n">
         <v>131.345883813158</v>
       </c>
       <c r="P24" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>136.2797675974293</v>
       </c>
       <c r="K26" t="n">
-        <v>205.77377890501</v>
+        <v>205.7737789050099</v>
       </c>
       <c r="L26" t="n">
-        <v>259.2885719405833</v>
+        <v>259.2885719405832</v>
       </c>
       <c r="M26" t="n">
         <v>293.5390450080082</v>
       </c>
       <c r="N26" t="n">
-        <v>287.9115241180137</v>
+        <v>287.9115241180136</v>
       </c>
       <c r="O26" t="n">
-        <v>246.520688178273</v>
+        <v>246.5206881782729</v>
       </c>
       <c r="P26" t="n">
         <v>197.1892610097178</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.0436253211968</v>
+        <v>123.0436253211967</v>
       </c>
       <c r="R26" t="n">
-        <v>18.47186492469643</v>
+        <v>18.47186492469642</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L27" t="n">
         <v>116.9800582279613</v>
@@ -36683,13 +36683,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N27" t="n">
-        <v>205.1323976856222</v>
+        <v>205.1323976856221</v>
       </c>
       <c r="O27" t="n">
         <v>131.345883813158</v>
       </c>
       <c r="P27" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,10 +36729,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.72786649135813</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.00239721261974</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>158.6993380137113</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>154.9881956948347</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.98567304013807</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.2797675974292</v>
+        <v>136.2797675974293</v>
       </c>
       <c r="K29" t="n">
         <v>205.7737789050099</v>
@@ -36838,22 +36838,22 @@
         <v>259.2885719405832</v>
       </c>
       <c r="M29" t="n">
-        <v>293.5390450080081</v>
+        <v>293.5390450080082</v>
       </c>
       <c r="N29" t="n">
         <v>287.9115241180136</v>
       </c>
       <c r="O29" t="n">
-        <v>246.5206881782728</v>
+        <v>246.5206881782729</v>
       </c>
       <c r="P29" t="n">
-        <v>197.1892610097177</v>
+        <v>197.1892610097178</v>
       </c>
       <c r="Q29" t="n">
         <v>123.0436253211967</v>
       </c>
       <c r="R29" t="n">
-        <v>18.47186492469632</v>
+        <v>18.4718649246964</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L30" t="n">
         <v>116.9800582279613</v>
@@ -36920,13 +36920,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N30" t="n">
-        <v>205.1323976856222</v>
+        <v>205.1323976856221</v>
       </c>
       <c r="O30" t="n">
         <v>131.345883813158</v>
       </c>
       <c r="P30" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4651040306801</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>51.83497311341596</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>175.8667621129151</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.23663119565161</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.2797675974292</v>
+        <v>136.2797675974293</v>
       </c>
       <c r="K32" t="n">
         <v>205.7737789050099</v>
@@ -37075,7 +37075,7 @@
         <v>259.2885719405832</v>
       </c>
       <c r="M32" t="n">
-        <v>293.5390450080081</v>
+        <v>293.5390450080082</v>
       </c>
       <c r="N32" t="n">
         <v>287.9115241180136</v>
@@ -37084,13 +37084,13 @@
         <v>246.5206881782729</v>
       </c>
       <c r="P32" t="n">
-        <v>197.1892610097177</v>
+        <v>197.1892610097178</v>
       </c>
       <c r="Q32" t="n">
         <v>123.0436253211967</v>
       </c>
       <c r="R32" t="n">
-        <v>18.47186492469635</v>
+        <v>18.47186492469642</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L33" t="n">
         <v>116.9800582279613</v>
@@ -37157,13 +37157,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N33" t="n">
-        <v>205.1323976856222</v>
+        <v>205.1323976856221</v>
       </c>
       <c r="O33" t="n">
         <v>131.345883813158</v>
       </c>
       <c r="P33" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,13 +37203,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>12.51376377674818</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>72.5089062511054</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37218,13 +37218,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>48.30784980076057</v>
       </c>
       <c r="I34" t="n">
-        <v>49.15348795759019</v>
+        <v>49.15348795759024</v>
       </c>
       <c r="J34" t="n">
-        <v>93.52557724088774</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>119.7523345131364</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.48806295484386</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.51895603257442</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>194.1338497992705</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.5559572017814</v>
       </c>
       <c r="L35" t="n">
-        <v>45.1035244772528</v>
+        <v>260.5559572017814</v>
       </c>
       <c r="M35" t="n">
         <v>79.35399754467772</v>
       </c>
       <c r="N35" t="n">
-        <v>73.7264766546832</v>
+        <v>260.5559572017814</v>
       </c>
       <c r="O35" t="n">
-        <v>236.0125867986484</v>
+        <v>94.34849910827197</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.897707523038</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>76.32594712653766</v>
+        <v>76.32594712653754</v>
       </c>
       <c r="S35" t="n">
-        <v>44.2204467426706</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.51529364928478</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.88752903619175</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L36" t="n">
         <v>116.9800582279613</v>
@@ -37394,13 +37394,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N36" t="n">
-        <v>205.1323976856222</v>
+        <v>205.1323976856221</v>
       </c>
       <c r="O36" t="n">
         <v>131.345883813158</v>
       </c>
       <c r="P36" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>35.59772334862403</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>16.95515889176909</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.64256445685517</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.51895603257442</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>194.1338497992705</v>
+        <v>194.1338497992704</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.5559572017814</v>
       </c>
       <c r="L38" t="n">
-        <v>45.1035244772528</v>
+        <v>45.10352447725279</v>
       </c>
       <c r="M38" t="n">
-        <v>96.20146308128602</v>
+        <v>244.9431590138633</v>
       </c>
       <c r="N38" t="n">
-        <v>260.555957201781</v>
+        <v>73.72647665468318</v>
       </c>
       <c r="O38" t="n">
-        <v>32.3356407149425</v>
+        <v>32.33564071494249</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.897707523038</v>
+        <v>180.8977075230379</v>
       </c>
       <c r="R38" t="n">
-        <v>76.32594712653766</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.2204467426706</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.51529364928478</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.88752903619175</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L39" t="n">
         <v>116.9800582279613</v>
@@ -37631,13 +37631,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N39" t="n">
-        <v>205.1323976856222</v>
+        <v>205.1323976856221</v>
       </c>
       <c r="O39" t="n">
         <v>131.345883813158</v>
       </c>
       <c r="P39" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.59772334862426</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.59772334862403</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>233.1089050742768</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>45.1035244772528</v>
+        <v>243.5205149664925</v>
       </c>
       <c r="M41" t="n">
-        <v>273.8075454793928</v>
+        <v>280.7079464249641</v>
       </c>
       <c r="N41" t="n">
-        <v>73.7264766546832</v>
+        <v>280.7079464249641</v>
       </c>
       <c r="O41" t="n">
-        <v>32.3356407149425</v>
+        <v>273.8558143475398</v>
       </c>
       <c r="P41" t="n">
-        <v>224.5243871789846</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3787514904636</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>45.80699109396328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.70149071009622</v>
+        <v>13.70149071009619</v>
       </c>
       <c r="T41" t="n">
-        <v>18.9963376167104</v>
+        <v>18.99633761671037</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L42" t="n">
         <v>116.9800582279613</v>
@@ -37868,13 +37868,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N42" t="n">
-        <v>205.1323976856222</v>
+        <v>205.1323976856221</v>
       </c>
       <c r="O42" t="n">
         <v>131.345883813158</v>
       </c>
       <c r="P42" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.00159699978074</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>83.80342089628898</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.82318912411069</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.978634772397672</v>
       </c>
       <c r="T43" t="n">
-        <v>17.73324094534735</v>
+        <v>17.73324094534733</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>126.7707948861721</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>233.1089050742767</v>
       </c>
       <c r="L44" t="n">
-        <v>45.1035244772528</v>
+        <v>280.7079464249641</v>
       </c>
       <c r="M44" t="n">
         <v>79.35399754467772</v>
       </c>
       <c r="N44" t="n">
-        <v>280.7079464249639</v>
+        <v>280.7079464249641</v>
       </c>
       <c r="O44" t="n">
-        <v>266.6181146637497</v>
+        <v>32.33564071494249</v>
       </c>
       <c r="P44" t="n">
-        <v>224.5243871789846</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3787514904636</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>45.80699109396328</v>
+        <v>45.80699109396325</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.70149071009619</v>
       </c>
       <c r="T44" t="n">
-        <v>18.9963376167104</v>
+        <v>18.99633761671037</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.20294810763674</v>
+        <v>37.20294810763673</v>
       </c>
       <c r="L45" t="n">
         <v>116.9800582279613</v>
@@ -38105,13 +38105,13 @@
         <v>181.7169418919249</v>
       </c>
       <c r="N45" t="n">
-        <v>205.1323976856222</v>
+        <v>205.1323976856221</v>
       </c>
       <c r="O45" t="n">
         <v>131.345883813158</v>
       </c>
       <c r="P45" t="n">
-        <v>83.11715470447885</v>
+        <v>83.11715470447884</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>101.5366618416364</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5366618416363</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
